--- a/docs/Snake River IPTDS Prioritization 20230814.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230814.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5C2F3-CC53-490D-BFDD-ACB4AF673DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C5601-D02E-49A8-A3DD-CC3BB51EA3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80280" yWindow="-6315" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="validation" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SR_IPTDS_Sites!$A$1:$AI$101</definedName>
     <definedName name="figure_1_outcomes">validation!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4372,10 +4373,10 @@
   <dimension ref="A1:AI101"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AI1"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/Snake River IPTDS Prioritization 20230814.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230814.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C5601-D02E-49A8-A3DD-CC3BB51EA3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A67ADF6-6E90-48DA-BF58-7E3696C0FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80280" yWindow="-6315" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80280" yWindow="-6315" windowWidth="16440" windowHeight="28590" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -3625,7 +3625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A42020D-9532-4D3F-8F80-EE8C6D0895CA}">
   <dimension ref="B1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4370,13 +4370,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4525,7 +4526,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>95</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>96</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>97</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>98</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>99</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>231</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>46</v>
       </c>
@@ -5689,7 +5690,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>47</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>48</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>50</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>49</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>55</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>56</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>59</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>60</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>52</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>53</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>54</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>63</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>91</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>92</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>93</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>94</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>64</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>65</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>70</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>66</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>68</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>67</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>69</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>86</v>
       </c>
@@ -9063,7 +9064,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>90</v>
       </c>
@@ -9161,7 +9162,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>88</v>
       </c>
@@ -9259,7 +9260,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>89</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>87</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>84</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>367</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>85</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>121</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>120</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>100</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>101</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>104</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>387</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>390</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>394</v>
       </c>
@@ -10497,7 +10498,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>106</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
         <v>400</v>
       </c>
@@ -10681,7 +10682,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>105</v>
       </c>
@@ -10781,7 +10782,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>107</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>108</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>109</v>
       </c>
@@ -11077,7 +11078,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>416</v>
       </c>
@@ -11163,7 +11164,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>103</v>
       </c>
@@ -11263,7 +11264,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>102</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>110</v>
       </c>
@@ -11463,7 +11464,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>111</v>
       </c>
@@ -11561,7 +11562,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>112</v>
       </c>
@@ -11661,7 +11662,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>113</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>437</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>114</v>
       </c>
@@ -11943,7 +11944,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>115</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>116</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>117</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
         <v>118</v>
       </c>
@@ -12339,7 +12340,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>454</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>122</v>
       </c>
@@ -12521,7 +12522,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>123</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>124</v>
       </c>
@@ -12723,7 +12724,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
         <v>467</v>
       </c>
@@ -12807,7 +12808,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
         <v>125</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
         <v>126</v>
       </c>
@@ -13003,7 +13004,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
         <v>127</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
         <v>73</v>
       </c>
@@ -13203,7 +13204,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>82</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>74</v>
       </c>
@@ -13403,7 +13404,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
         <v>75</v>
       </c>
@@ -13689,7 +13690,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
         <v>77</v>
       </c>
@@ -13789,7 +13790,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>78</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
         <v>81</v>
       </c>
@@ -14191,7 +14192,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>83</v>
       </c>
@@ -14294,6 +14295,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI101" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="20">
+      <filters>
+        <filter val="NPT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -14304,7 +14317,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D18" sqref="D18"/>

--- a/docs/Snake River IPTDS Prioritization 20230814.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230814.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A67ADF6-6E90-48DA-BF58-7E3696C0FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04DB49B-CC16-431F-90FA-51B671E2F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80280" yWindow="-6315" windowWidth="16440" windowHeight="28590" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -4370,14 +4370,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A99" sqref="A8:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4526,7 +4525,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>95</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>96</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>97</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>98</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>99</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>231</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>46</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>47</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>48</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>50</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>49</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>55</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>56</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>59</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>60</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>52</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>53</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>54</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>63</v>
       </c>
@@ -7558,7 +7557,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>91</v>
       </c>
@@ -7658,7 +7657,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>92</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>93</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>94</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>64</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>65</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>70</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>66</v>
       </c>
@@ -8564,7 +8563,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>68</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>67</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>69</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>86</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>90</v>
       </c>
@@ -9162,7 +9161,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>88</v>
       </c>
@@ -9260,7 +9259,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>89</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>87</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>84</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>367</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>85</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>121</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>120</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>100</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>101</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>104</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>387</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>390</v>
       </c>
@@ -10412,7 +10411,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>394</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>106</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
         <v>400</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>105</v>
       </c>
@@ -10782,7 +10781,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>107</v>
       </c>
@@ -10880,7 +10879,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>108</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>109</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>416</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>103</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>102</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>110</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>111</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>112</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="75" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>113</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="76" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>437</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>114</v>
       </c>
@@ -11944,7 +11943,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>115</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>116</v>
       </c>
@@ -12140,7 +12139,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="80" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>117</v>
       </c>
@@ -12240,7 +12239,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
         <v>118</v>
       </c>
@@ -12340,7 +12339,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="82" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>454</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="83" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>122</v>
       </c>
@@ -12522,7 +12521,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>123</v>
       </c>
@@ -12622,7 +12621,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="85" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>124</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="86" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
         <v>467</v>
       </c>
@@ -12808,7 +12807,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
         <v>125</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
         <v>126</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
         <v>127</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
         <v>73</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>82</v>
       </c>
@@ -13304,7 +13303,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>74</v>
       </c>
@@ -13404,7 +13403,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="93" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
         <v>75</v>
       </c>
@@ -13690,7 +13689,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
         <v>77</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="97" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>78</v>
       </c>
@@ -14090,7 +14089,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="100" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
         <v>81</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="101" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>83</v>
       </c>
@@ -14295,18 +14294,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI101" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="20">
-      <filters>
-        <filter val="NPT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/docs/Snake River IPTDS Prioritization 20230814.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230814.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04DB49B-CC16-431F-90FA-51B671E2F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23F220-D765-47EB-AF1F-74CEF7E235EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="validation" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SR_IPTDS_Sites!$A$1:$AI$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SR_IPTDS_Sites!$A$1:$AI$102</definedName>
     <definedName name="figure_1_outcomes">validation!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="861">
   <si>
     <t>stream</t>
   </si>
@@ -2924,12 +2924,27 @@
   <si>
     <t>AI</t>
   </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>Bedrock Creek Seasonal IPTDS</t>
+  </si>
+  <si>
+    <t>Bedrock Creek</t>
+  </si>
+  <si>
+    <t>522.224.042.001</t>
+  </si>
+  <si>
+    <t>Bedrock Creek is a tributary of the lower Clearwater River, Idaho. The confluence of Bedrock Creek is on the north side of the Clearwater River at river kilometer 42. Bedrock Creek is approximately 12.7 miles long, draining 25,650 acres, and is considered a minor spawning area for Snake River summer steelhead within the Lower Mainstem Clearwater steelhead population. The Bedrock Creek interrogation site was installed as a temporary and seasonal site at river kilometer 1.0 to estimate steelhead abundance within the Bedrock Creek spawning aggregate because an interrogation site downstream of the Lower Mainstem Clearwater capable of providing a population estimate for the population area does not exist.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2969,6 +2984,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3081,7 +3103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3142,6 +3164,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3705,7 +3728,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -3716,7 +3739,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -3725,7 +3748,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="28"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
@@ -3734,7 +3757,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -3745,7 +3768,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -3754,7 +3777,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -3763,7 +3786,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="12" t="s">
         <v>19</v>
       </c>
@@ -3772,7 +3795,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -3783,7 +3806,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="12" t="s">
         <v>21</v>
       </c>
@@ -3792,7 +3815,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -3803,7 +3826,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="27"/>
+      <c r="B24" s="28"/>
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -3812,7 +3835,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="28"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="12" t="s">
         <v>24</v>
       </c>
@@ -4370,13 +4393,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
-  <dimension ref="A1:AI101"/>
+  <dimension ref="A1:AI102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A8:XFD99"/>
+      <selection pane="bottomRight" activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6389,10 +6412,10 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>272</v>
+        <v>856</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>857</v>
       </c>
       <c r="C21" s="18" t="b">
         <v>0</v>
@@ -6401,25 +6424,25 @@
         <v>661</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>579</v>
+        <v>858</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G21" s="17">
-        <v>46.301448000000001</v>
+        <v>46.524406999999997</v>
       </c>
       <c r="H21" s="17">
-        <v>-116.13350699999999</v>
+        <v>-116.582295</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>580</v>
+        <v>683</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>684</v>
@@ -6432,13 +6455,13 @@
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="17" t="s">
-        <v>274</v>
+        <v>859</v>
       </c>
       <c r="R21" s="17">
-        <v>843</v>
+        <v>789</v>
       </c>
       <c r="S21" s="18">
-        <v>44965</v>
+        <v>45337</v>
       </c>
       <c r="T21" s="18" t="s">
         <v>230</v>
@@ -6450,8 +6473,12 @@
         <v>523</v>
       </c>
       <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
+      <c r="X21" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>536</v>
+      </c>
       <c r="Z21" s="18" t="b">
         <v>1</v>
       </c>
@@ -6464,21 +6491,25 @@
       <c r="AC21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
+      <c r="AD21" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE21" s="20" t="s">
+        <v>522</v>
+      </c>
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="21"/>
-      <c r="AI21" t="s">
-        <v>275</v>
+      <c r="AI21" s="26" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C22" s="18" t="b">
         <v>0</v>
@@ -6487,16 +6518,16 @@
         <v>661</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G22" s="17">
-        <v>46.218468999999999</v>
+        <v>46.301448000000001</v>
       </c>
       <c r="H22" s="17">
-        <v>-116.02898500000001</v>
+        <v>-116.13350699999999</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>681</v>
@@ -6518,13 +6549,13 @@
       </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R22" s="17">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="S22" s="18">
-        <v>44953</v>
+        <v>44965</v>
       </c>
       <c r="T22" s="18" t="s">
         <v>230</v>
@@ -6545,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="AB22" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="18" t="b">
         <v>1</v>
@@ -6556,115 +6587,101 @@
       <c r="AG22" s="20"/>
       <c r="AH22" s="21"/>
       <c r="AI22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>141</v>
+        <v>580</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G23" s="17">
-        <v>46.137022000000002</v>
+        <v>46.218468999999999</v>
       </c>
       <c r="H23" s="17">
-        <v>-115.981313</v>
+        <v>-116.02898500000001</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>681</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>693</v>
+        <v>580</v>
       </c>
       <c r="M23" s="17" t="s">
         <v>684</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="22">
-        <v>100</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="P23" s="22"/>
       <c r="Q23" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R23" s="17">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="S23" s="18">
-        <v>40773</v>
-      </c>
-      <c r="T23" s="18">
-        <v>43726</v>
+        <v>44953</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U23" s="18" t="s">
         <v>523</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="W23" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X23" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y23" s="18" t="s">
-        <v>540</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
       <c r="Z23" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA23" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC23" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD23" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE23" s="20" t="s">
-        <v>538</v>
-      </c>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
-      <c r="AH23" s="21" t="s">
-        <v>547</v>
-      </c>
+      <c r="AH23" s="21"/>
       <c r="AI23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C24" s="18" t="b">
         <v>1</v>
@@ -6679,10 +6696,10 @@
         <v>179</v>
       </c>
       <c r="G24" s="17">
-        <v>46.127209000000001</v>
+        <v>46.137022000000002</v>
       </c>
       <c r="H24" s="17">
-        <v>-115.97776</v>
+        <v>-115.981313</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>681</v>
@@ -6703,19 +6720,19 @@
         <v>141</v>
       </c>
       <c r="P24" s="22">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="R24" s="17">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="S24" s="18">
-        <v>40805</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>230</v>
+        <v>40773</v>
+      </c>
+      <c r="T24" s="18">
+        <v>43726</v>
       </c>
       <c r="U24" s="18" t="s">
         <v>523</v>
@@ -6739,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC24" s="18" t="b">
         <v>1</v>
@@ -6753,216 +6770,216 @@
       <c r="AF24" s="20"/>
       <c r="AG24" s="20"/>
       <c r="AH24" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AI24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C25" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G25" s="17">
-        <v>46.132739000000001</v>
+        <v>46.127209000000001</v>
       </c>
       <c r="H25" s="17">
-        <v>-115.95018399999999</v>
+        <v>-115.97776</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>681</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>580</v>
+        <v>693</v>
       </c>
       <c r="M25" s="17" t="s">
         <v>684</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>685</v>
+        <v>141</v>
       </c>
       <c r="P25" s="22">
-        <v>6.17</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R25" s="17">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="S25" s="18">
-        <v>42046</v>
-      </c>
-      <c r="T25" s="18">
-        <v>43304</v>
+        <v>40805</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="V25" s="18" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="W25" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="X25" s="18" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="Y25" s="18" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="Z25" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="17">
         <v>1</v>
       </c>
       <c r="AB25" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC25" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE25" s="20" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="AF25" s="20"/>
       <c r="AG25" s="20"/>
-      <c r="AH25" s="21"/>
+      <c r="AH25" s="21" t="s">
+        <v>548</v>
+      </c>
       <c r="AI25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C26" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G26" s="17">
-        <v>46.145727000000001</v>
+        <v>46.132739000000001</v>
       </c>
       <c r="H26" s="17">
-        <v>-115.596497</v>
+        <v>-115.95018399999999</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>138</v>
+        <v>580</v>
       </c>
       <c r="M26" s="17" t="s">
         <v>684</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>138</v>
+        <v>685</v>
       </c>
       <c r="P26" s="22">
-        <v>99.8</v>
+        <v>6.17</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="R26" s="17">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="S26" s="18">
-        <v>42653</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>230</v>
+        <v>42046</v>
+      </c>
+      <c r="T26" s="18">
+        <v>43304</v>
       </c>
       <c r="U26" s="18" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="V26" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W26" s="18" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="X26" s="18" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="Y26" s="18" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="Z26" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="17">
         <v>1</v>
       </c>
       <c r="AB26" s="17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AC26" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE26" s="20" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
-      <c r="AH26" s="21" t="s">
-        <v>541</v>
-      </c>
+      <c r="AH26" s="21"/>
       <c r="AI26" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C27" s="18" t="b">
         <v>1</v>
@@ -6977,10 +6994,10 @@
         <v>179</v>
       </c>
       <c r="G27" s="17">
-        <v>46.163820999999999</v>
+        <v>46.145727000000001</v>
       </c>
       <c r="H27" s="17">
-        <v>-115.589663</v>
+        <v>-115.596497</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>688</v>
@@ -7001,16 +7018,16 @@
         <v>138</v>
       </c>
       <c r="P27" s="22">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="R27" s="17">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="S27" s="18">
-        <v>43074</v>
+        <v>42653</v>
       </c>
       <c r="T27" s="18" t="s">
         <v>230</v>
@@ -7037,10 +7054,10 @@
         <v>1</v>
       </c>
       <c r="AB27" s="17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AC27" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="20" t="s">
         <v>521</v>
@@ -7051,75 +7068,75 @@
       <c r="AF27" s="20"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AI27" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C28" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G28" s="17">
-        <v>46.110317999999999</v>
+        <v>46.163820999999999</v>
       </c>
       <c r="H28" s="17">
-        <v>-115.56588600000001</v>
+        <v>-115.589663</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>688</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>733</v>
+        <v>138</v>
       </c>
       <c r="M28" s="17" t="s">
         <v>684</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P28" s="22">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R28" s="17">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="S28" s="18">
-        <v>42675</v>
+        <v>43074</v>
       </c>
       <c r="T28" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U28" s="18" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="V28" s="18" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="W28" s="18" t="s">
         <v>535</v>
@@ -7128,7 +7145,7 @@
         <v>535</v>
       </c>
       <c r="Y28" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z28" s="18" t="b">
         <v>1</v>
@@ -7137,32 +7154,32 @@
         <v>1</v>
       </c>
       <c r="AB28" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC28" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE28" s="20" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="21" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AI28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C29" s="18" t="b">
         <v>0</v>
@@ -7177,10 +7194,10 @@
         <v>179</v>
       </c>
       <c r="G29" s="17">
-        <v>46.085934000000002</v>
+        <v>46.110317999999999</v>
       </c>
       <c r="H29" s="17">
-        <v>-115.515533</v>
+        <v>-115.56588600000001</v>
       </c>
       <c r="I29" s="17" t="s">
         <v>688</v>
@@ -7201,16 +7218,16 @@
         <v>140</v>
       </c>
       <c r="P29" s="22">
-        <v>98.4</v>
+        <v>99.8</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="R29" s="17">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="S29" s="18">
-        <v>42989</v>
+        <v>42675</v>
       </c>
       <c r="T29" s="18" t="s">
         <v>230</v>
@@ -7237,10 +7254,10 @@
         <v>1</v>
       </c>
       <c r="AB29" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC29" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="20" t="s">
         <v>521</v>
@@ -7251,18 +7268,18 @@
       <c r="AF29" s="20"/>
       <c r="AG29" s="20"/>
       <c r="AH29" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AI29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C30" s="18" t="b">
         <v>0</v>
@@ -7271,46 +7288,46 @@
         <v>661</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G30" s="17">
-        <v>45.814145000000003</v>
+        <v>46.085934000000002</v>
       </c>
       <c r="H30" s="17">
-        <v>-115.815972</v>
+        <v>-115.515533</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>692</v>
+        <v>733</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="M30" s="17" t="s">
         <v>684</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>230</v>
+        <v>140</v>
+      </c>
+      <c r="P30" s="22">
+        <v>98.4</v>
       </c>
       <c r="Q30" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="R30" s="17">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="S30" s="18">
-        <v>44431</v>
+        <v>42989</v>
       </c>
       <c r="T30" s="18" t="s">
         <v>230</v>
@@ -7337,32 +7354,32 @@
         <v>1</v>
       </c>
       <c r="AB30" s="17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AC30" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="20" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AE30" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF30" s="20" t="s">
-        <v>549</v>
-      </c>
+      <c r="AF30" s="20"/>
       <c r="AG30" s="20"/>
-      <c r="AH30" s="21"/>
+      <c r="AH30" s="21" t="s">
+        <v>546</v>
+      </c>
       <c r="AI30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C31" s="18" t="b">
         <v>0</v>
@@ -7377,10 +7394,10 @@
         <v>179</v>
       </c>
       <c r="G31" s="17">
-        <v>45.823500000000003</v>
+        <v>45.814145000000003</v>
       </c>
       <c r="H31" s="17">
-        <v>-115.6341</v>
+        <v>-115.815972</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>681</v>
@@ -7404,10 +7421,10 @@
         <v>230</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R31" s="17">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="S31" s="18">
         <v>44431</v>
@@ -7434,16 +7451,16 @@
         <v>1</v>
       </c>
       <c r="AA31" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC31" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD31" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AE31" s="20" t="s">
         <v>522</v>
@@ -7454,33 +7471,33 @@
       <c r="AG31" s="20"/>
       <c r="AH31" s="21"/>
       <c r="AI31" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C32" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>179</v>
       </c>
       <c r="G32" s="17">
-        <v>45.821492999999997</v>
+        <v>45.823500000000003</v>
       </c>
       <c r="H32" s="17">
-        <v>-115.52766</v>
+        <v>-115.6341</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>681</v>
@@ -7500,26 +7517,26 @@
       <c r="O32" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="P32" s="22">
-        <v>9.42</v>
+      <c r="P32" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R32" s="17">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="S32" s="18">
-        <v>44476</v>
+        <v>44431</v>
       </c>
       <c r="T32" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U32" s="18" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="V32" s="18" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="W32" s="18" t="s">
         <v>535</v>
@@ -7528,7 +7545,7 @@
         <v>535</v>
       </c>
       <c r="Y32" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z32" s="18" t="b">
         <v>1</v>
@@ -7537,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="AB32" s="17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC32" s="18" t="b">
         <v>1</v>
@@ -7546,123 +7563,123 @@
         <v>527</v>
       </c>
       <c r="AE32" s="20" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AF32" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG32" s="20"/>
       <c r="AH32" s="21"/>
       <c r="AI32" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C33" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G33" s="17">
-        <v>46.341368000000003</v>
+        <v>45.821492999999997</v>
       </c>
       <c r="H33" s="17">
-        <v>-117.055707</v>
+        <v>-115.52766</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>160</v>
+        <v>693</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P33" s="22">
-        <v>52.6</v>
+        <v>9.42</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R33" s="17">
-        <v>757</v>
+        <v>960</v>
       </c>
       <c r="S33" s="18">
-        <v>40756</v>
-      </c>
-      <c r="T33" s="18">
-        <v>41151</v>
+        <v>44476</v>
+      </c>
+      <c r="T33" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U33" s="18" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="V33" s="18" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="W33" s="18" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y33" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z33" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA33" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC33" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD33" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE33" s="20" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AF33" s="20" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="AG33" s="20"/>
       <c r="AH33" s="21"/>
       <c r="AI33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C34" s="18" t="b">
         <v>0</v>
@@ -7677,10 +7694,10 @@
         <v>205</v>
       </c>
       <c r="G34" s="17">
-        <v>46.325583999999999</v>
+        <v>46.341368000000003</v>
       </c>
       <c r="H34" s="17">
-        <v>-117.108679</v>
+        <v>-117.055707</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>679</v>
@@ -7701,19 +7718,19 @@
         <v>160</v>
       </c>
       <c r="P34" s="22">
-        <v>49.4</v>
+        <v>52.6</v>
       </c>
       <c r="Q34" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R34" s="17">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="S34" s="18">
-        <v>40024</v>
+        <v>40756</v>
       </c>
       <c r="T34" s="18">
-        <v>43396</v>
+        <v>41151</v>
       </c>
       <c r="U34" s="18" t="s">
         <v>565</v>
@@ -7734,19 +7751,19 @@
         <v>1</v>
       </c>
       <c r="AA34" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB34" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC34" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD34" s="20" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AE34" s="20" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AF34" s="20" t="s">
         <v>564</v>
@@ -7754,15 +7771,15 @@
       <c r="AG34" s="20"/>
       <c r="AH34" s="21"/>
       <c r="AI34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C35" s="18" t="b">
         <v>0</v>
@@ -7771,16 +7788,16 @@
         <v>661</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>205</v>
       </c>
       <c r="G35" s="17">
-        <v>46.288457999999999</v>
+        <v>46.325583999999999</v>
       </c>
       <c r="H35" s="17">
-        <v>-117.28249700000001</v>
+        <v>-117.108679</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>679</v>
@@ -7801,19 +7818,19 @@
         <v>160</v>
       </c>
       <c r="P35" s="22">
-        <v>4.4000000000000004</v>
+        <v>49.4</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R35" s="17">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="S35" s="18">
-        <v>40032</v>
+        <v>40024</v>
       </c>
       <c r="T35" s="18">
-        <v>44550</v>
+        <v>43396</v>
       </c>
       <c r="U35" s="18" t="s">
         <v>565</v>
@@ -7834,16 +7851,16 @@
         <v>1</v>
       </c>
       <c r="AA35" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC35" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD35" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AE35" s="20" t="s">
         <v>531</v>
@@ -7854,15 +7871,15 @@
       <c r="AG35" s="20"/>
       <c r="AH35" s="21"/>
       <c r="AI35" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C36" s="18" t="b">
         <v>0</v>
@@ -7871,16 +7888,16 @@
         <v>661</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>205</v>
       </c>
       <c r="G36" s="17">
-        <v>46.272486999999998</v>
+        <v>46.288457999999999</v>
       </c>
       <c r="H36" s="17">
-        <v>-117.292147</v>
+        <v>-117.28249700000001</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>679</v>
@@ -7901,19 +7918,19 @@
         <v>160</v>
       </c>
       <c r="P36" s="22">
-        <v>16.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="R36" s="17">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="S36" s="18">
-        <v>40024</v>
+        <v>40032</v>
       </c>
       <c r="T36" s="18">
-        <v>43399</v>
+        <v>44550</v>
       </c>
       <c r="U36" s="18" t="s">
         <v>565</v>
@@ -7937,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="AB36" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC36" s="18" t="b">
         <v>1</v>
@@ -7954,179 +7971,181 @@
       <c r="AG36" s="20"/>
       <c r="AH36" s="21"/>
       <c r="AI36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C37" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G37" s="17">
-        <v>46.030237</v>
+        <v>46.272486999999998</v>
       </c>
       <c r="H37" s="17">
-        <v>-117.016408</v>
+        <v>-117.292147</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>230</v>
+        <v>694</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>145</v>
+        <v>679</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="P37" s="22">
-        <v>98.6</v>
+        <v>16.3</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="R37" s="17">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="S37" s="18">
-        <v>40452</v>
+        <v>40024</v>
       </c>
       <c r="T37" s="18">
-        <v>43771</v>
+        <v>43399</v>
       </c>
       <c r="U37" s="18" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="V37" s="18" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="X37" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="Y37" s="18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Z37" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA37" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB37" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AC37" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD37" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE37" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF37" s="20"/>
+        <v>531</v>
+      </c>
+      <c r="AF37" s="20" t="s">
+        <v>564</v>
+      </c>
       <c r="AG37" s="20"/>
       <c r="AH37" s="21"/>
       <c r="AI37" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C38" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G38" s="17">
-        <v>45.946151</v>
+        <v>46.030237</v>
       </c>
       <c r="H38" s="17">
-        <v>-117.45412399999999</v>
+        <v>-117.016408</v>
       </c>
       <c r="I38" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>696</v>
+        <v>230</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="M38" s="17" t="s">
         <v>145</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>697</v>
+        <v>143</v>
       </c>
       <c r="P38" s="22">
-        <v>99</v>
+        <v>98.6</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R38" s="17">
-        <v>867</v>
+        <v>803</v>
       </c>
       <c r="S38" s="18">
-        <v>43370</v>
+        <v>40452</v>
       </c>
       <c r="T38" s="18">
-        <v>44824</v>
+        <v>43771</v>
       </c>
       <c r="U38" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="V38" s="18" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="W38" s="18" t="s">
         <v>535</v>
       </c>
       <c r="X38" s="18" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="Y38" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z38" s="18" t="b">
         <v>1</v>
@@ -8135,7 +8154,7 @@
         <v>2</v>
       </c>
       <c r="AB38" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC38" s="18" t="b">
         <v>1</v>
@@ -8147,95 +8166,93 @@
         <v>522</v>
       </c>
       <c r="AF38" s="20"/>
-      <c r="AG38" s="20" t="s">
-        <v>552</v>
-      </c>
+      <c r="AG38" s="20"/>
       <c r="AH38" s="21"/>
       <c r="AI38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C39" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G39" s="17">
-        <v>45.633679000000001</v>
+        <v>45.946151</v>
       </c>
       <c r="H39" s="17">
-        <v>-117.733757</v>
+        <v>-117.45412399999999</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>699</v>
+        <v>144</v>
       </c>
       <c r="M39" s="17" t="s">
         <v>145</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>147</v>
+        <v>697</v>
       </c>
       <c r="P39" s="22">
-        <v>95.1</v>
+        <v>99</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="R39" s="17">
-        <v>938</v>
+        <v>867</v>
       </c>
       <c r="S39" s="18">
-        <v>41502</v>
-      </c>
-      <c r="T39" s="18" t="s">
-        <v>230</v>
+        <v>43370</v>
+      </c>
+      <c r="T39" s="18">
+        <v>44824</v>
       </c>
       <c r="U39" s="18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="V39" s="18" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="W39" s="18" t="s">
         <v>535</v>
       </c>
       <c r="X39" s="18" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="Y39" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z39" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA39" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC39" s="18" t="b">
         <v>1</v>
@@ -8244,52 +8261,50 @@
         <v>521</v>
       </c>
       <c r="AE39" s="20" t="s">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="AF39" s="20"/>
       <c r="AG39" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH39" s="21" t="s">
-        <v>559</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="AH39" s="21"/>
       <c r="AI39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C40" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G40" s="17">
-        <v>45.619622999999997</v>
+        <v>45.633679000000001</v>
       </c>
       <c r="H40" s="17">
-        <v>-117.72657</v>
+        <v>-117.733757</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>148</v>
+        <v>699</v>
       </c>
       <c r="M40" s="17" t="s">
         <v>145</v>
@@ -8300,17 +8315,17 @@
       <c r="O40" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="P40" s="22" t="s">
-        <v>230</v>
+      <c r="P40" s="22">
+        <v>95.1</v>
       </c>
       <c r="Q40" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="R40" s="17">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="S40" s="18">
-        <v>43881</v>
+        <v>41502</v>
       </c>
       <c r="T40" s="18" t="s">
         <v>230</v>
@@ -8319,7 +8334,7 @@
         <v>523</v>
       </c>
       <c r="V40" s="18" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="W40" s="18" t="s">
         <v>535</v>
@@ -8328,16 +8343,16 @@
         <v>535</v>
       </c>
       <c r="Y40" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z40" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA40" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB40" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AC40" s="18" t="b">
         <v>1</v>
@@ -8350,21 +8365,21 @@
       </c>
       <c r="AF40" s="20"/>
       <c r="AG40" s="20" t="s">
-        <v>552</v>
+        <v>22</v>
       </c>
       <c r="AH40" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AI40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C41" s="18" t="b">
         <v>0</v>
@@ -8373,25 +8388,25 @@
         <v>661</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G41" s="17">
-        <v>45.594465999999997</v>
+        <v>45.619622999999997</v>
       </c>
       <c r="H41" s="17">
-        <v>-117.579223</v>
+        <v>-117.72657</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>699</v>
+        <v>148</v>
       </c>
       <c r="M41" s="17" t="s">
         <v>145</v>
@@ -8406,16 +8421,16 @@
         <v>230</v>
       </c>
       <c r="Q41" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="R41" s="17">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="S41" s="18">
-        <v>43314</v>
-      </c>
-      <c r="T41" s="18">
-        <v>44849</v>
+        <v>43881</v>
+      </c>
+      <c r="T41" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U41" s="18" t="s">
         <v>523</v>
@@ -8439,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="AB41" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC41" s="18" t="b">
         <v>1</v>
@@ -8452,78 +8467,78 @@
       </c>
       <c r="AF41" s="20"/>
       <c r="AG41" s="20" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="AH41" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AI41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C42" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G42" s="17">
-        <v>45.593519999999998</v>
+        <v>45.594465999999997</v>
       </c>
       <c r="H42" s="17">
-        <v>-117.903379</v>
+        <v>-117.579223</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>734</v>
+        <v>699</v>
       </c>
       <c r="M42" s="17" t="s">
         <v>145</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="P42" s="22">
-        <v>88.1</v>
+        <v>147</v>
+      </c>
+      <c r="P42" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q42" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="R42" s="17">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="S42" s="18">
-        <v>41200</v>
-      </c>
-      <c r="T42" s="18" t="s">
-        <v>230</v>
+        <v>43314</v>
+      </c>
+      <c r="T42" s="18">
+        <v>44849</v>
       </c>
       <c r="U42" s="18" t="s">
         <v>523</v>
       </c>
       <c r="V42" s="18" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="W42" s="18" t="s">
         <v>535</v>
@@ -8532,16 +8547,16 @@
         <v>535</v>
       </c>
       <c r="Y42" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z42" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA42" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB42" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC42" s="18" t="b">
         <v>1</v>
@@ -8557,45 +8572,45 @@
         <v>22</v>
       </c>
       <c r="AH42" s="21" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AI42" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>656</v>
+        <v>337</v>
       </c>
       <c r="C43" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G43">
-        <v>45.190964000000001</v>
-      </c>
-      <c r="H43">
-        <v>-117.82861699999999</v>
+      <c r="G43" s="17">
+        <v>45.593519999999998</v>
+      </c>
+      <c r="H43" s="17">
+        <v>-117.903379</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>146</v>
+        <v>734</v>
       </c>
       <c r="M43" s="17" t="s">
         <v>145</v>
@@ -8606,75 +8621,77 @@
       <c r="O43" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="P43" s="22" t="s">
-        <v>230</v>
+      <c r="P43" s="22">
+        <v>88.1</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>657</v>
+        <v>338</v>
       </c>
       <c r="R43" s="17">
-        <v>1057</v>
+        <v>948</v>
       </c>
       <c r="S43" s="18">
-        <v>42065</v>
-      </c>
-      <c r="T43" s="18">
-        <v>44671</v>
+        <v>41200</v>
+      </c>
+      <c r="T43" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U43" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="V43" s="18" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="X43" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z43" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA43" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC43" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD43" s="20" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AE43" s="20" t="s">
-        <v>522</v>
+        <v>19</v>
       </c>
       <c r="AF43" s="20"/>
       <c r="AG43" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AH43" s="21"/>
+      <c r="AH43" s="21" t="s">
+        <v>555</v>
+      </c>
       <c r="AI43" t="s">
-        <v>658</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>656</v>
       </c>
       <c r="C44" s="18" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>146</v>
@@ -8682,11 +8699,11 @@
       <c r="F44" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G44" s="17">
-        <v>45.215252</v>
-      </c>
-      <c r="H44" s="17">
-        <v>-117.900689</v>
+      <c r="G44">
+        <v>45.190964000000001</v>
+      </c>
+      <c r="H44">
+        <v>-117.82861699999999</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>695</v>
@@ -8710,16 +8727,16 @@
         <v>230</v>
       </c>
       <c r="Q44" s="17" t="s">
-        <v>341</v>
+        <v>657</v>
       </c>
       <c r="R44" s="17">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="S44" s="18">
-        <v>43453</v>
-      </c>
-      <c r="T44" s="18" t="s">
-        <v>230</v>
+        <v>42065</v>
+      </c>
+      <c r="T44" s="18">
+        <v>44671</v>
       </c>
       <c r="U44" s="18" t="s">
         <v>553</v>
@@ -8728,13 +8745,13 @@
         <v>553</v>
       </c>
       <c r="W44" s="18" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="X44" s="18" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Z44" s="18" t="b">
         <v>1</v>
@@ -8752,25 +8769,23 @@
         <v>526</v>
       </c>
       <c r="AE44" s="20" t="s">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="AF44" s="20"/>
       <c r="AG44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AH44" s="21" t="s">
-        <v>556</v>
-      </c>
+      <c r="AH44" s="21"/>
       <c r="AI44" t="s">
-        <v>342</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C45" s="18" t="b">
         <v>0</v>
@@ -8779,25 +8794,25 @@
         <v>661</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G45" s="17">
-        <v>45.248955000000002</v>
+        <v>45.215252</v>
       </c>
       <c r="H45" s="17">
-        <v>-118.388958</v>
+        <v>-117.900689</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>701</v>
+        <v>146</v>
       </c>
       <c r="M45" s="17" t="s">
         <v>145</v>
@@ -8808,20 +8823,20 @@
       <c r="O45" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="P45" s="22">
-        <v>14</v>
+      <c r="P45" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q45" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R45" s="17">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="S45" s="18">
-        <v>43042</v>
-      </c>
-      <c r="T45" s="18">
-        <v>44665</v>
+        <v>43453</v>
+      </c>
+      <c r="T45" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U45" s="18" t="s">
         <v>553</v>
@@ -8833,7 +8848,7 @@
         <v>535</v>
       </c>
       <c r="X45" s="18" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="Y45" s="18" t="s">
         <v>536</v>
@@ -8842,10 +8857,10 @@
         <v>1</v>
       </c>
       <c r="AA45" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB45" s="17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AC45" s="18" t="b">
         <v>1</v>
@@ -8861,18 +8876,18 @@
         <v>22</v>
       </c>
       <c r="AH45" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AI45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C46" s="18" t="b">
         <v>0</v>
@@ -8881,61 +8896,61 @@
         <v>661</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G46" s="17">
-        <v>45.758183000000002</v>
+        <v>45.248955000000002</v>
       </c>
       <c r="H46" s="17">
-        <v>-116.306603</v>
+        <v>-118.388958</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>157</v>
+        <v>695</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>589</v>
+        <v>145</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="P46" s="22" t="s">
-        <v>230</v>
+        <v>701</v>
+      </c>
+      <c r="P46" s="22">
+        <v>14</v>
       </c>
       <c r="Q46" s="17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R46" s="17">
-        <v>913</v>
+        <v>1084</v>
       </c>
       <c r="S46" s="18">
-        <v>44210</v>
-      </c>
-      <c r="T46" s="18" t="s">
-        <v>230</v>
+        <v>43042</v>
+      </c>
+      <c r="T46" s="18">
+        <v>44665</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="V46" s="18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="W46" s="18" t="s">
         <v>535</v>
       </c>
       <c r="X46" s="18" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="Y46" s="18" t="s">
         <v>536</v>
@@ -8944,81 +8959,85 @@
         <v>1</v>
       </c>
       <c r="AA46" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB46" s="17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AC46" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD46" s="20" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="AE46" s="20" t="s">
-        <v>522</v>
+        <v>19</v>
       </c>
       <c r="AF46" s="20"/>
-      <c r="AG46" s="20"/>
-      <c r="AH46" s="21"/>
+      <c r="AG46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH46" s="21" t="s">
+        <v>558</v>
+      </c>
       <c r="AI46" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C47" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G47" s="17">
-        <v>45.175659000000003</v>
+        <v>45.758183000000002</v>
       </c>
       <c r="H47" s="17">
-        <v>-115.579712</v>
+        <v>-116.306603</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>157</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="P47" s="22">
-        <v>96.3</v>
+        <v>706</v>
+      </c>
+      <c r="P47" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="R47" s="17">
-        <v>1070</v>
+        <v>913</v>
       </c>
       <c r="S47" s="18">
-        <v>39873</v>
+        <v>44210</v>
       </c>
       <c r="T47" s="18" t="s">
         <v>230</v>
@@ -9027,7 +9046,7 @@
         <v>523</v>
       </c>
       <c r="V47" s="18" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="W47" s="18" t="s">
         <v>535</v>
@@ -9036,16 +9055,16 @@
         <v>535</v>
       </c>
       <c r="Y47" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z47" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA47" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB47" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC47" s="18" t="b">
         <v>1</v>
@@ -9060,15 +9079,15 @@
       <c r="AG47" s="20"/>
       <c r="AH47" s="21"/>
       <c r="AI47" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C48" s="18" t="b">
         <v>1</v>
@@ -9077,49 +9096,49 @@
         <v>661</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G48" s="17">
-        <v>45.033299999999997</v>
+        <v>45.175659000000003</v>
       </c>
       <c r="H48" s="17">
-        <v>-115.73302</v>
+        <v>-115.579712</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>157</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>159</v>
+        <v>708</v>
       </c>
       <c r="M48" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P48" s="22">
-        <v>99.2</v>
+        <v>96.3</v>
       </c>
       <c r="Q48" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="R48" s="17">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="S48" s="18">
         <v>39873</v>
       </c>
-      <c r="T48" s="18">
-        <v>41011</v>
+      <c r="T48" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U48" s="18" t="s">
         <v>523</v>
@@ -9140,10 +9159,10 @@
         <v>1</v>
       </c>
       <c r="AA48" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB48" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AC48" s="18" t="b">
         <v>1</v>
@@ -9152,21 +9171,21 @@
         <v>521</v>
       </c>
       <c r="AE48" s="20" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="AF48" s="20"/>
       <c r="AG48" s="20"/>
       <c r="AH48" s="21"/>
       <c r="AI48" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C49" s="18" t="b">
         <v>1</v>
@@ -9175,49 +9194,49 @@
         <v>661</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G49" s="17">
-        <v>44.956204999999997</v>
+        <v>45.033299999999997</v>
       </c>
       <c r="H49" s="17">
-        <v>-115.53315000000001</v>
+        <v>-115.73302</v>
       </c>
       <c r="I49" s="17" t="s">
         <v>157</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M49" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P49" s="22">
-        <v>45.9</v>
+        <v>99.2</v>
       </c>
       <c r="Q49" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="R49" s="17">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="S49" s="18">
         <v>39873</v>
       </c>
-      <c r="T49" s="18" t="s">
-        <v>230</v>
+      <c r="T49" s="18">
+        <v>41011</v>
       </c>
       <c r="U49" s="18" t="s">
         <v>523</v>
@@ -9241,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="AB49" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC49" s="18" t="b">
         <v>1</v>
@@ -9250,24 +9269,24 @@
         <v>521</v>
       </c>
       <c r="AE49" s="20" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AF49" s="20"/>
       <c r="AG49" s="20"/>
       <c r="AH49" s="21"/>
       <c r="AI49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C50" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>661</v>
@@ -9279,10 +9298,10 @@
         <v>204</v>
       </c>
       <c r="G50" s="17">
-        <v>44.928995</v>
+        <v>44.956204999999997</v>
       </c>
       <c r="H50" s="17">
-        <v>-115.333883</v>
+        <v>-115.53315000000001</v>
       </c>
       <c r="I50" s="17" t="s">
         <v>157</v>
@@ -9302,35 +9321,35 @@
       <c r="O50" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="P50" s="22" t="s">
-        <v>230</v>
+      <c r="P50" s="22">
+        <v>45.9</v>
       </c>
       <c r="Q50" s="17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="R50" s="17">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="S50" s="18">
-        <v>42978</v>
+        <v>39873</v>
       </c>
       <c r="T50" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U50" s="18" t="s">
-        <v>736</v>
+        <v>523</v>
       </c>
       <c r="V50" s="18" t="s">
-        <v>736</v>
+        <v>539</v>
       </c>
       <c r="W50" s="18" t="s">
-        <v>735</v>
+        <v>535</v>
       </c>
       <c r="X50" s="18" t="s">
-        <v>736</v>
+        <v>535</v>
       </c>
       <c r="Y50" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z50" s="18" t="b">
         <v>1</v>
@@ -9339,57 +9358,57 @@
         <v>2</v>
       </c>
       <c r="AB50" s="17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AC50" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD50" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AE50" s="20" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="AF50" s="20"/>
       <c r="AG50" s="20"/>
       <c r="AH50" s="21"/>
       <c r="AI50" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C51" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G51" s="17">
-        <v>44.978471999999996</v>
+        <v>44.928995</v>
       </c>
       <c r="H51" s="17">
-        <v>-115.726994</v>
+        <v>-115.333883</v>
       </c>
       <c r="I51" s="17" t="s">
         <v>157</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>708</v>
+        <v>158</v>
       </c>
       <c r="M51" s="17" t="s">
         <v>589</v>
@@ -9400,35 +9419,35 @@
       <c r="O51" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="P51" s="22">
-        <v>38.700000000000003</v>
+      <c r="P51" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="R51" s="17">
-        <v>1105</v>
+        <v>1142</v>
       </c>
       <c r="S51" s="18">
-        <v>39469</v>
-      </c>
-      <c r="T51" s="18">
-        <v>44047</v>
+        <v>42978</v>
+      </c>
+      <c r="T51" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>523</v>
+        <v>736</v>
       </c>
       <c r="V51" s="18" t="s">
-        <v>539</v>
+        <v>736</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>535</v>
+        <v>735</v>
       </c>
       <c r="X51" s="18" t="s">
-        <v>535</v>
+        <v>736</v>
       </c>
       <c r="Y51" s="18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Z51" s="18" t="b">
         <v>1</v>
@@ -9437,30 +9456,30 @@
         <v>2</v>
       </c>
       <c r="AB51" s="17">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD51" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE51" s="20" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AF51" s="20"/>
       <c r="AG51" s="20"/>
       <c r="AH51" s="21"/>
       <c r="AI51" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C52" s="18" t="b">
         <v>1</v>
@@ -9469,52 +9488,52 @@
         <v>661</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G52" s="17">
-        <v>45.103532000000001</v>
+        <v>44.978471999999996</v>
       </c>
       <c r="H52" s="17">
-        <v>-114.85381700000001</v>
+        <v>-115.726994</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>711</v>
+        <v>157</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>155</v>
+        <v>708</v>
       </c>
       <c r="M52" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>713</v>
+        <v>157</v>
       </c>
       <c r="P52" s="22">
-        <v>37.9</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R52" s="17">
-        <v>1184</v>
+        <v>1105</v>
       </c>
       <c r="S52" s="18">
-        <v>38899</v>
+        <v>39469</v>
       </c>
       <c r="T52" s="18">
-        <v>43018</v>
+        <v>44047</v>
       </c>
       <c r="U52" s="18" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="V52" s="18" t="s">
         <v>539</v>
@@ -9535,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="AB52" s="17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AC52" s="18" t="b">
         <v>1</v>
@@ -9544,134 +9563,148 @@
         <v>521</v>
       </c>
       <c r="AE52" s="20" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AF52" s="20"/>
       <c r="AG52" s="20"/>
-      <c r="AH52" s="21" t="s">
-        <v>563</v>
-      </c>
+      <c r="AH52" s="21"/>
       <c r="AI52" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C53" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>581</v>
+        <v>155</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G53" s="17">
-        <v>44.427939000000002</v>
+        <v>45.103532000000001</v>
       </c>
       <c r="H53" s="17">
-        <v>-115.284171</v>
+        <v>-114.85381700000001</v>
       </c>
       <c r="I53" s="17" t="s">
         <v>711</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>581</v>
+        <v>155</v>
       </c>
       <c r="M53" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="P53" s="22"/>
+        <v>713</v>
+      </c>
+      <c r="P53" s="22">
+        <v>37.9</v>
+      </c>
       <c r="Q53" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R53" s="17">
-        <v>1320</v>
+        <v>1184</v>
       </c>
       <c r="S53" s="18">
-        <v>41088</v>
-      </c>
-      <c r="T53" s="18" t="s">
-        <v>230</v>
+        <v>38899</v>
+      </c>
+      <c r="T53" s="18">
+        <v>43018</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="V53" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
+        <v>539</v>
+      </c>
+      <c r="W53" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="X53" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y53" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z53" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AA53" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB53" s="17">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AC53" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD53" s="20"/>
-      <c r="AE53" s="20"/>
+      <c r="AD53" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE53" s="20" t="s">
+        <v>538</v>
+      </c>
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
-      <c r="AH53" s="21"/>
+      <c r="AH53" s="21" t="s">
+        <v>563</v>
+      </c>
       <c r="AI53" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C54" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>156</v>
+        <v>581</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G54" s="17">
-        <v>44.408689000000003</v>
+        <v>44.427939000000002</v>
       </c>
       <c r="H54" s="17">
-        <v>-115.179841</v>
+        <v>-115.284171</v>
       </c>
       <c r="I54" s="17" t="s">
         <v>711</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>156</v>
+        <v>581</v>
       </c>
       <c r="M54" s="17" t="s">
         <v>589</v>
@@ -9682,126 +9715,110 @@
       <c r="O54" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="P54" s="22">
-        <v>45.9</v>
-      </c>
+      <c r="P54" s="22"/>
       <c r="Q54" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R54" s="17">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="S54" s="18">
-        <v>43755</v>
+        <v>41088</v>
       </c>
       <c r="T54" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U54" s="18" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="V54" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="W54" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X54" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y54" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z54" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
       <c r="AA54" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="17">
         <v>2</v>
       </c>
-      <c r="AB54" s="17">
-        <v>8</v>
-      </c>
       <c r="AC54" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD54" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE54" s="20" t="s">
-        <v>538</v>
-      </c>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
       <c r="AF54" s="20"/>
       <c r="AG54" s="20"/>
-      <c r="AH54" s="21" t="s">
-        <v>563</v>
-      </c>
+      <c r="AH54" s="21"/>
       <c r="AI54" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C55" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>585</v>
+        <v>156</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G55" s="17">
-        <v>45.295253000000002</v>
+        <v>44.408689000000003</v>
       </c>
       <c r="H55" s="17">
-        <v>-114.358101</v>
+        <v>-115.179841</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>175</v>
+        <v>711</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>585</v>
+        <v>156</v>
       </c>
       <c r="M55" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>585</v>
+        <v>715</v>
       </c>
       <c r="P55" s="22">
-        <v>76.400000000000006</v>
+        <v>45.9</v>
       </c>
       <c r="Q55" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R55" s="17">
-        <v>1168</v>
+        <v>1322</v>
       </c>
       <c r="S55" s="18">
-        <v>42943</v>
+        <v>43755</v>
       </c>
       <c r="T55" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U55" s="18" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="V55" s="18" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="W55" s="18" t="s">
         <v>535</v>
@@ -9810,7 +9827,7 @@
         <v>535</v>
       </c>
       <c r="Y55" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z55" s="18" t="b">
         <v>1</v>
@@ -9819,7 +9836,7 @@
         <v>2</v>
       </c>
       <c r="AB55" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC55" s="18" t="b">
         <v>1</v>
@@ -9831,88 +9848,86 @@
         <v>538</v>
       </c>
       <c r="AF55" s="20"/>
-      <c r="AG55" s="20" t="s">
-        <v>572</v>
-      </c>
+      <c r="AG55" s="20"/>
       <c r="AH55" s="21" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="AI55" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="C56" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>174</v>
+        <v>585</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G56" s="17">
-        <v>45.417558</v>
+        <v>45.295253000000002</v>
       </c>
       <c r="H56" s="17">
-        <v>-113.994089</v>
+        <v>-114.358101</v>
       </c>
       <c r="I56" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>174</v>
+        <v>585</v>
       </c>
       <c r="M56" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O56" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="P56" s="22" t="s">
-        <v>230</v>
+        <v>585</v>
+      </c>
+      <c r="P56" s="22">
+        <v>76.400000000000006</v>
       </c>
       <c r="Q56" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R56" s="17">
-        <v>1208</v>
+        <v>1168</v>
       </c>
       <c r="S56" s="18">
-        <v>42326</v>
+        <v>42943</v>
       </c>
       <c r="T56" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U56" s="18" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="V56" s="18" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="W56" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="X56" s="18" t="s">
         <v>535</v>
       </c>
       <c r="Y56" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z56" s="18" t="b">
         <v>1</v>
@@ -9930,139 +9945,143 @@
         <v>521</v>
       </c>
       <c r="AE56" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF56" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="AG56" s="20"/>
-      <c r="AH56" s="21"/>
+        <v>538</v>
+      </c>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH56" s="21" t="s">
+        <v>574</v>
+      </c>
       <c r="AI56" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>174</v>
       </c>
       <c r="C57" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G57" s="17">
-        <v>45.246485</v>
+        <v>45.417558</v>
       </c>
       <c r="H57" s="17">
-        <v>-113.893466</v>
+        <v>-113.994089</v>
       </c>
       <c r="I57" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>582</v>
+        <v>174</v>
       </c>
       <c r="M57" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="P57" s="22">
-        <v>3.3</v>
+        <v>174</v>
+      </c>
+      <c r="P57" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q57" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="R57" s="17">
-        <v>1234</v>
+        <v>1208</v>
       </c>
       <c r="S57" s="18">
-        <v>41568</v>
-      </c>
-      <c r="T57" s="18">
-        <v>43160</v>
+        <v>42326</v>
+      </c>
+      <c r="T57" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U57" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V57" s="18" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="W57" s="18" t="s">
         <v>529</v>
       </c>
       <c r="X57" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y57" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z57" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB57" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC57" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD57" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AE57" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF57" s="20"/>
+      <c r="AF57" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="AG57" s="20"/>
       <c r="AH57" s="21"/>
       <c r="AI57" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>379</v>
       </c>
       <c r="C58" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>582</v>
+        <v>163</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G58" s="17">
-        <v>45.176475000000003</v>
+        <v>45.246485</v>
       </c>
       <c r="H58" s="17">
-        <v>-113.885278</v>
+        <v>-113.893466</v>
       </c>
       <c r="I58" s="17" t="s">
         <v>175</v>
@@ -10083,71 +10102,69 @@
         <v>582</v>
       </c>
       <c r="P58" s="22">
-        <v>93.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q58" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R58" s="17">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="S58" s="18">
-        <v>40026</v>
+        <v>41568</v>
       </c>
       <c r="T58" s="18">
-        <v>42984</v>
+        <v>43160</v>
       </c>
       <c r="U58" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V58" s="18" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="W58" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="X58" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="Y58" s="18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Z58" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB58" s="17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC58" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD58" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE58" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF58" s="20" t="s">
-        <v>569</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="AF58" s="20"/>
       <c r="AG58" s="20"/>
       <c r="AH58" s="21"/>
       <c r="AI58" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>164</v>
       </c>
       <c r="C59" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>661</v>
@@ -10159,10 +10176,10 @@
         <v>204</v>
       </c>
       <c r="G59" s="17">
-        <v>45.115074</v>
+        <v>45.176475000000003</v>
       </c>
       <c r="H59" s="17">
-        <v>-113.774021</v>
+        <v>-113.885278</v>
       </c>
       <c r="I59" s="17" t="s">
         <v>175</v>
@@ -10182,35 +10199,35 @@
       <c r="O59" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P59" s="22" t="s">
-        <v>230</v>
+      <c r="P59" s="22">
+        <v>93.1</v>
       </c>
       <c r="Q59" s="17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="R59" s="17">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="S59" s="18">
-        <v>43682</v>
-      </c>
-      <c r="T59" s="18" t="s">
-        <v>230</v>
+        <v>40026</v>
+      </c>
+      <c r="T59" s="18">
+        <v>42984</v>
       </c>
       <c r="U59" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V59" s="18" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="W59" s="18" t="s">
         <v>535</v>
       </c>
       <c r="X59" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y59" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z59" s="18" t="b">
         <v>1</v>
@@ -10219,16 +10236,16 @@
         <v>2</v>
       </c>
       <c r="AB59" s="17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC59" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD59" s="20" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AE59" s="20" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="AF59" s="20" t="s">
         <v>569</v>
@@ -10236,15 +10253,15 @@
       <c r="AG59" s="20"/>
       <c r="AH59" s="21"/>
       <c r="AI59" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C60" s="18" t="b">
         <v>0</v>
@@ -10259,10 +10276,10 @@
         <v>204</v>
       </c>
       <c r="G60" s="17">
-        <v>45.113169999999997</v>
+        <v>45.115074</v>
       </c>
       <c r="H60" s="17">
-        <v>-113.7556</v>
+        <v>-113.774021</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>175</v>
@@ -10282,7 +10299,9 @@
       <c r="O60" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P60" s="22"/>
+      <c r="P60" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="Q60" s="17" t="s">
         <v>385</v>
       </c>
@@ -10290,7 +10309,7 @@
         <v>1257</v>
       </c>
       <c r="S60" s="18">
-        <v>43814</v>
+        <v>43682</v>
       </c>
       <c r="T60" s="18" t="s">
         <v>230</v>
@@ -10301,36 +10320,48 @@
       <c r="V60" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
+      <c r="W60" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="X60" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y60" s="18" t="s">
+        <v>533</v>
+      </c>
       <c r="Z60" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA60" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB60" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC60" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="20"/>
-      <c r="AE60" s="20"/>
-      <c r="AF60" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD60" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE60" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF60" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG60" s="20"/>
       <c r="AH60" s="21"/>
       <c r="AI60" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C61" s="18" t="b">
         <v>0</v>
@@ -10345,10 +10376,10 @@
         <v>204</v>
       </c>
       <c r="G61" s="17">
-        <v>45.111257000000002</v>
+        <v>45.113169999999997</v>
       </c>
       <c r="H61" s="17">
-        <v>-113.74641800000001</v>
+        <v>-113.7556</v>
       </c>
       <c r="I61" s="17" t="s">
         <v>175</v>
@@ -10370,16 +10401,16 @@
       </c>
       <c r="P61" s="22"/>
       <c r="Q61" s="17" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="R61" s="17">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="S61" s="18">
-        <v>42915</v>
-      </c>
-      <c r="T61" s="18">
-        <v>43544</v>
+        <v>43814</v>
+      </c>
+      <c r="T61" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U61" s="18" t="s">
         <v>528</v>
@@ -10408,15 +10439,15 @@
       <c r="AG61" s="20"/>
       <c r="AH61" s="21"/>
       <c r="AI61" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B62" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C62" s="18" t="b">
         <v>0</v>
@@ -10431,10 +10462,10 @@
         <v>204</v>
       </c>
       <c r="G62" s="17">
-        <v>45.112769999999998</v>
+        <v>45.111257000000002</v>
       </c>
       <c r="H62" s="17">
-        <v>-113.74987</v>
+        <v>-113.74641800000001</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>175</v>
@@ -10462,10 +10493,10 @@
         <v>1258</v>
       </c>
       <c r="S62" s="18">
-        <v>43739</v>
-      </c>
-      <c r="T62" s="18" t="s">
-        <v>230</v>
+        <v>42915</v>
+      </c>
+      <c r="T62" s="18">
+        <v>43544</v>
       </c>
       <c r="U62" s="18" t="s">
         <v>528</v>
@@ -10494,33 +10525,33 @@
       <c r="AG62" s="20"/>
       <c r="AH62" s="21"/>
       <c r="AI62" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="B63" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C63" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>166</v>
+        <v>582</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G63" s="17">
-        <v>45.112189000000001</v>
+        <v>45.112769999999998</v>
       </c>
       <c r="H63" s="17">
-        <v>-113.746897</v>
+        <v>-113.74987</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>175</v>
@@ -10540,87 +10571,73 @@
       <c r="O63" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P63" s="22">
-        <v>1.7</v>
-      </c>
+      <c r="P63" s="22"/>
       <c r="Q63" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="R63" s="17">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="S63" s="18">
-        <v>40822</v>
-      </c>
-      <c r="T63" s="18">
-        <v>43236</v>
+        <v>43739</v>
+      </c>
+      <c r="T63" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U63" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V63" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="W63" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X63" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y63" s="18" t="s">
-        <v>540</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
       <c r="Z63" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA63" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB63" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC63" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE63" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF63" s="20" t="s">
-        <v>569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
       <c r="AG63" s="20"/>
       <c r="AH63" s="21"/>
       <c r="AI63" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C64" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>582</v>
+        <v>166</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G64" s="17">
-        <v>45.109456999999999</v>
+        <v>45.112189000000001</v>
       </c>
       <c r="H64" s="17">
-        <v>-113.742696</v>
+        <v>-113.746897</v>
       </c>
       <c r="I64" s="17" t="s">
         <v>175</v>
@@ -10640,53 +10657,69 @@
       <c r="O64" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P64" s="22"/>
+      <c r="P64" s="22">
+        <v>1.7</v>
+      </c>
       <c r="Q64" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R64" s="17">
         <v>1259</v>
       </c>
       <c r="S64" s="18">
-        <v>42915</v>
+        <v>40822</v>
       </c>
       <c r="T64" s="18">
-        <v>43630</v>
+        <v>43236</v>
       </c>
       <c r="U64" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V64" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
+        <v>570</v>
+      </c>
+      <c r="W64" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="X64" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y64" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z64" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AA64" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB64" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC64" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="20"/>
-      <c r="AE64" s="20"/>
-      <c r="AF64" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD64" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE64" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF64" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG64" s="20"/>
       <c r="AH64" s="21"/>
       <c r="AI64" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
-        <v>105</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C65" s="18" t="b">
         <v>0</v>
@@ -10701,10 +10734,10 @@
         <v>204</v>
       </c>
       <c r="G65" s="17">
-        <v>45.100087000000002</v>
+        <v>45.109456999999999</v>
       </c>
       <c r="H65" s="17">
-        <v>-113.72604200000001</v>
+        <v>-113.742696</v>
       </c>
       <c r="I65" s="17" t="s">
         <v>175</v>
@@ -10724,20 +10757,18 @@
       <c r="O65" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P65" s="22" t="s">
-        <v>230</v>
-      </c>
+      <c r="P65" s="22"/>
       <c r="Q65" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="R65" s="17">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="S65" s="18">
-        <v>43664</v>
-      </c>
-      <c r="T65" s="18" t="s">
-        <v>230</v>
+        <v>42915</v>
+      </c>
+      <c r="T65" s="18">
+        <v>43630</v>
       </c>
       <c r="U65" s="18" t="s">
         <v>528</v>
@@ -10745,48 +10776,34 @@
       <c r="V65" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="W65" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X65" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y65" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z65" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="18"/>
       <c r="AA65" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB65" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC65" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD65" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE65" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF65" s="20" t="s">
-        <v>569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="20"/>
       <c r="AG65" s="20"/>
       <c r="AH65" s="21"/>
       <c r="AI65" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C66" s="18" t="b">
         <v>0</v>
@@ -10795,16 +10812,16 @@
         <v>661</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G66" s="17">
-        <v>45.097937999999999</v>
+        <v>45.100087000000002</v>
       </c>
       <c r="H66" s="17">
-        <v>-113.72049699999999</v>
+        <v>-113.72604200000001</v>
       </c>
       <c r="I66" s="17" t="s">
         <v>175</v>
@@ -10824,29 +10841,29 @@
       <c r="O66" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P66" s="22">
-        <v>1.1000000000000001</v>
+      <c r="P66" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q66" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="R66" s="17">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="S66" s="18">
-        <v>41556</v>
-      </c>
-      <c r="T66" s="18">
-        <v>43216</v>
+        <v>43664</v>
+      </c>
+      <c r="T66" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U66" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V66" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="W66" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="X66" s="18" t="s">
         <v>529</v>
@@ -10855,13 +10872,13 @@
         <v>533</v>
       </c>
       <c r="Z66" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA66" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB66" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC66" s="18" t="b">
         <v>1</v>
@@ -10872,19 +10889,21 @@
       <c r="AE66" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF66" s="20"/>
+      <c r="AF66" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG66" s="20"/>
       <c r="AH66" s="21"/>
       <c r="AI66" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C67" s="18" t="b">
         <v>0</v>
@@ -10893,16 +10912,16 @@
         <v>661</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>167</v>
+        <v>586</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G67" s="17">
-        <v>45.026792</v>
+        <v>45.097937999999999</v>
       </c>
       <c r="H67" s="17">
-        <v>-113.654847</v>
+        <v>-113.72049699999999</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>175</v>
@@ -10926,22 +10945,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q67" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="R67" s="17">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="S67" s="18">
-        <v>40330</v>
+        <v>41556</v>
       </c>
       <c r="T67" s="18">
-        <v>42353</v>
+        <v>43216</v>
       </c>
       <c r="U67" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V67" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="W67" s="18" t="s">
         <v>529</v>
@@ -10953,13 +10972,13 @@
         <v>533</v>
       </c>
       <c r="Z67" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB67" s="17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC67" s="18" t="b">
         <v>1</v>
@@ -10970,21 +10989,19 @@
       <c r="AE67" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF67" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="AF67" s="20"/>
       <c r="AG67" s="20"/>
       <c r="AH67" s="21"/>
       <c r="AI67" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C68" s="18" t="b">
         <v>0</v>
@@ -10993,16 +11010,16 @@
         <v>661</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G68" s="17">
-        <v>44.956738999999999</v>
+        <v>45.026792</v>
       </c>
       <c r="H68" s="17">
-        <v>-113.639543</v>
+        <v>-113.654847</v>
       </c>
       <c r="I68" s="17" t="s">
         <v>175</v>
@@ -11022,26 +11039,26 @@
       <c r="O68" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P68" s="22" t="s">
-        <v>230</v>
+      <c r="P68" s="22">
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R68" s="17">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="S68" s="18">
-        <v>41568</v>
+        <v>40330</v>
       </c>
       <c r="T68" s="18">
-        <v>42680</v>
+        <v>42353</v>
       </c>
       <c r="U68" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V68" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="W68" s="18" t="s">
         <v>529</v>
@@ -11053,13 +11070,13 @@
         <v>533</v>
       </c>
       <c r="Z68" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA68" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB68" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC68" s="18" t="b">
         <v>1</v>
@@ -11070,19 +11087,21 @@
       <c r="AE68" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF68" s="20"/>
+      <c r="AF68" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG68" s="20"/>
       <c r="AH68" s="21"/>
       <c r="AI68" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>416</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C69" s="18" t="b">
         <v>0</v>
@@ -11091,16 +11110,16 @@
         <v>661</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>582</v>
+        <v>168</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G69" s="17">
-        <v>44.896909999999998</v>
+        <v>44.956738999999999</v>
       </c>
       <c r="H69" s="17">
-        <v>-113.62475000000001</v>
+        <v>-113.639543</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>175</v>
@@ -11120,73 +11139,85 @@
       <c r="O69" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P69" s="22"/>
+      <c r="P69" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="Q69" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="R69" s="17">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="S69" s="18">
-        <v>44768</v>
-      </c>
-      <c r="T69" s="18" t="s">
-        <v>230</v>
+        <v>41568</v>
+      </c>
+      <c r="T69" s="18">
+        <v>42680</v>
       </c>
       <c r="U69" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V69" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="18"/>
+        <v>551</v>
+      </c>
+      <c r="W69" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="X69" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y69" s="18" t="s">
+        <v>533</v>
+      </c>
       <c r="Z69" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA69" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB69" s="17">
         <v>3</v>
       </c>
       <c r="AC69" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="20"/>
-      <c r="AE69" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD69" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE69" s="20" t="s">
+        <v>522</v>
+      </c>
       <c r="AF69" s="20"/>
       <c r="AG69" s="20"/>
       <c r="AH69" s="21"/>
       <c r="AI69" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
-        <v>103</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C70" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>165</v>
+        <v>582</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G70" s="17">
-        <v>44.861654000000001</v>
+        <v>44.896909999999998</v>
       </c>
       <c r="H70" s="17">
-        <v>-113.63193699999999</v>
+        <v>-113.62475000000001</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>175</v>
@@ -11206,69 +11237,55 @@
       <c r="O70" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P70" s="22">
-        <v>10.199999999999999</v>
-      </c>
+      <c r="P70" s="22"/>
       <c r="Q70" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="R70" s="17">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="S70" s="18">
-        <v>40026</v>
-      </c>
-      <c r="T70" s="18">
-        <v>43369</v>
+        <v>44768</v>
+      </c>
+      <c r="T70" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U70" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V70" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="W70" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X70" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y70" s="18" t="s">
-        <v>540</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="18"/>
       <c r="Z70" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA70" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB70" s="17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC70" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE70" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF70" s="20" t="s">
-        <v>569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="20"/>
       <c r="AG70" s="20"/>
       <c r="AH70" s="21"/>
       <c r="AI70" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C71" s="18" t="b">
         <v>1</v>
@@ -11277,16 +11294,16 @@
         <v>661</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>582</v>
+        <v>165</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G71" s="17">
-        <v>44.865960000000001</v>
+        <v>44.861654000000001</v>
       </c>
       <c r="H71" s="17">
-        <v>-113.62472099999999</v>
+        <v>-113.63193699999999</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>175</v>
@@ -11307,10 +11324,10 @@
         <v>582</v>
       </c>
       <c r="P71" s="22">
-        <v>56.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q71" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="R71" s="17">
         <v>1291</v>
@@ -11319,7 +11336,7 @@
         <v>40026</v>
       </c>
       <c r="T71" s="18">
-        <v>40800</v>
+        <v>43369</v>
       </c>
       <c r="U71" s="18" t="s">
         <v>528</v>
@@ -11343,7 +11360,7 @@
         <v>2</v>
       </c>
       <c r="AB71" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC71" s="18" t="b">
         <v>1</v>
@@ -11360,15 +11377,15 @@
       <c r="AG71" s="20"/>
       <c r="AH71" s="21"/>
       <c r="AI71" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C72" s="18" t="b">
         <v>1</v>
@@ -11377,16 +11394,16 @@
         <v>661</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G72" s="17">
-        <v>44.780552</v>
+        <v>44.865960000000001</v>
       </c>
       <c r="H72" s="17">
-        <v>-113.545027</v>
+        <v>-113.62472099999999</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>175</v>
@@ -11406,20 +11423,20 @@
       <c r="O72" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P72" s="22" t="s">
-        <v>230</v>
+      <c r="P72" s="22">
+        <v>56.8</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="R72" s="17">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="S72" s="18">
-        <v>40708</v>
+        <v>40026</v>
       </c>
       <c r="T72" s="18">
-        <v>43369</v>
+        <v>40800</v>
       </c>
       <c r="U72" s="18" t="s">
         <v>528</v>
@@ -11443,7 +11460,7 @@
         <v>2</v>
       </c>
       <c r="AB72" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC72" s="18" t="b">
         <v>1</v>
@@ -11460,33 +11477,33 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="21"/>
       <c r="AI72" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C73" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>429</v>
+        <v>587</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G73" s="17">
-        <v>44.738218000000003</v>
+        <v>44.780552</v>
       </c>
       <c r="H73" s="17">
-        <v>-113.462458</v>
+        <v>-113.545027</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>175</v>
@@ -11506,44 +11523,44 @@
       <c r="O73" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P73" s="22">
-        <v>4</v>
+      <c r="P73" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="R73" s="17">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="S73" s="18">
-        <v>42191</v>
+        <v>40708</v>
       </c>
       <c r="T73" s="18">
-        <v>43180</v>
+        <v>43369</v>
       </c>
       <c r="U73" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V73" s="18" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="W73" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="X73" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y73" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z73" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73" s="17">
         <v>2</v>
       </c>
       <c r="AB73" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC73" s="18" t="b">
         <v>1</v>
@@ -11554,19 +11571,21 @@
       <c r="AE73" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF73" s="20"/>
+      <c r="AF73" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG73" s="20"/>
       <c r="AH73" s="21"/>
       <c r="AI73" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="C74" s="18" t="b">
         <v>0</v>
@@ -11575,16 +11594,16 @@
         <v>661</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G74" s="17">
-        <v>44.727348999999997</v>
+        <v>44.738218000000003</v>
       </c>
       <c r="H74" s="17">
-        <v>-113.43321400000001</v>
+        <v>-113.462458</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>175</v>
@@ -11605,25 +11624,25 @@
         <v>582</v>
       </c>
       <c r="P74" s="22">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="Q74" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="R74" s="17">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="S74" s="18">
-        <v>41730</v>
+        <v>42191</v>
       </c>
       <c r="T74" s="18">
-        <v>44141</v>
+        <v>43180</v>
       </c>
       <c r="U74" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V74" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="W74" s="18" t="s">
         <v>529</v>
@@ -11635,13 +11654,13 @@
         <v>533</v>
       </c>
       <c r="Z74" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA74" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB74" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC74" s="18" t="b">
         <v>1</v>
@@ -11652,21 +11671,19 @@
       <c r="AE74" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF74" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="AF74" s="20"/>
       <c r="AG74" s="20"/>
       <c r="AH74" s="21"/>
       <c r="AI74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>434</v>
+        <v>169</v>
       </c>
       <c r="C75" s="18" t="b">
         <v>0</v>
@@ -11675,16 +11692,16 @@
         <v>661</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G75" s="17">
-        <v>44.747073999999998</v>
+        <v>44.727348999999997</v>
       </c>
       <c r="H75" s="17">
-        <v>-113.47464100000001</v>
+        <v>-113.43321400000001</v>
       </c>
       <c r="I75" s="17" t="s">
         <v>175</v>
@@ -11704,26 +11721,26 @@
       <c r="O75" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P75" s="22" t="s">
-        <v>230</v>
+      <c r="P75" s="22">
+        <v>0.2</v>
       </c>
       <c r="Q75" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="R75" s="17">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="S75" s="18">
-        <v>41629</v>
+        <v>41730</v>
       </c>
       <c r="T75" s="18">
-        <v>43201</v>
+        <v>44141</v>
       </c>
       <c r="U75" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V75" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="W75" s="18" t="s">
         <v>529</v>
@@ -11735,13 +11752,13 @@
         <v>533</v>
       </c>
       <c r="Z75" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA75" s="17">
         <v>3</v>
       </c>
       <c r="AB75" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC75" s="18" t="b">
         <v>1</v>
@@ -11752,19 +11769,21 @@
       <c r="AE75" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF75" s="20"/>
+      <c r="AF75" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG75" s="20"/>
       <c r="AH75" s="21"/>
       <c r="AI75" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="C76" s="18" t="b">
         <v>0</v>
@@ -11773,16 +11792,16 @@
         <v>661</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G76" s="17">
-        <v>44.688110000000002</v>
+        <v>44.747073999999998</v>
       </c>
       <c r="H76" s="17">
-        <v>-113.37041000000001</v>
+        <v>-113.47464100000001</v>
       </c>
       <c r="I76" s="17" t="s">
         <v>175</v>
@@ -11802,56 +11821,70 @@
       <c r="O76" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P76" s="22"/>
+      <c r="P76" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="Q76" s="17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="R76" s="17">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="S76" s="18">
-        <v>40198</v>
+        <v>41629</v>
       </c>
       <c r="T76" s="18">
-        <v>41562</v>
+        <v>43201</v>
       </c>
       <c r="U76" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V76" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
+        <v>551</v>
+      </c>
+      <c r="W76" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="X76" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y76" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z76" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="AA76" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB76" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC76" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD76" s="20"/>
-      <c r="AE76" s="20"/>
+      <c r="AD76" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE76" s="20" t="s">
+        <v>522</v>
+      </c>
       <c r="AF76" s="20"/>
       <c r="AG76" s="20"/>
       <c r="AH76" s="21"/>
       <c r="AI76" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
-        <v>114</v>
+        <v>437</v>
       </c>
       <c r="B77" t="s">
-        <v>440</v>
+        <v>171</v>
       </c>
       <c r="C77" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>661</v>
@@ -11863,10 +11896,10 @@
         <v>204</v>
       </c>
       <c r="G77" s="17">
-        <v>44.697567999999997</v>
+        <v>44.688110000000002</v>
       </c>
       <c r="H77" s="17">
-        <v>-113.374118</v>
+        <v>-113.37041000000001</v>
       </c>
       <c r="I77" s="17" t="s">
         <v>175</v>
@@ -11886,9 +11919,7 @@
       <c r="O77" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P77" s="22">
-        <v>7.6</v>
-      </c>
+      <c r="P77" s="22"/>
       <c r="Q77" s="17" t="s">
         <v>438</v>
       </c>
@@ -11896,62 +11927,48 @@
         <v>1331</v>
       </c>
       <c r="S77" s="18">
-        <v>41563</v>
+        <v>40198</v>
       </c>
       <c r="T77" s="18">
-        <v>43779</v>
+        <v>41562</v>
       </c>
       <c r="U77" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V77" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="W77" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="X77" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y77" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z77" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W77" s="18"/>
+      <c r="X77" s="18"/>
+      <c r="Y77" s="18"/>
+      <c r="Z77" s="18"/>
       <c r="AA77" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB77" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC77" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD77" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE77" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF77" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="AD77" s="20"/>
+      <c r="AE77" s="20"/>
+      <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
       <c r="AH77" s="21"/>
       <c r="AI77" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C78" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>661</v>
@@ -11963,10 +11980,10 @@
         <v>204</v>
       </c>
       <c r="G78" s="17">
-        <v>44.660443999999998</v>
+        <v>44.697567999999997</v>
       </c>
       <c r="H78" s="17">
-        <v>-113.377624</v>
+        <v>-113.374118</v>
       </c>
       <c r="I78" s="17" t="s">
         <v>175</v>
@@ -11986,44 +12003,44 @@
       <c r="O78" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P78" s="22" t="s">
-        <v>230</v>
+      <c r="P78" s="22">
+        <v>7.6</v>
       </c>
       <c r="Q78" s="17" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="R78" s="17">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="S78" s="18">
-        <v>42082</v>
+        <v>41563</v>
       </c>
       <c r="T78" s="18">
-        <v>43238</v>
+        <v>43779</v>
       </c>
       <c r="U78" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V78" s="18" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="W78" s="18" t="s">
         <v>529</v>
       </c>
       <c r="X78" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y78" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z78" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78" s="17">
         <v>3</v>
       </c>
       <c r="AB78" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC78" s="18" t="b">
         <v>1</v>
@@ -12034,19 +12051,21 @@
       <c r="AE78" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF78" s="20"/>
+      <c r="AF78" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG78" s="20"/>
       <c r="AH78" s="21"/>
       <c r="AI78" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C79" s="18" t="b">
         <v>0</v>
@@ -12061,10 +12080,10 @@
         <v>204</v>
       </c>
       <c r="G79" s="17">
-        <v>44.613860000000003</v>
+        <v>44.660443999999998</v>
       </c>
       <c r="H79" s="17">
-        <v>-113.397036</v>
+        <v>-113.377624</v>
       </c>
       <c r="I79" s="17" t="s">
         <v>175</v>
@@ -12088,16 +12107,16 @@
         <v>230</v>
       </c>
       <c r="Q79" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="R79" s="17">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="S79" s="18">
-        <v>42234</v>
+        <v>42082</v>
       </c>
       <c r="T79" s="18">
-        <v>43313</v>
+        <v>43238</v>
       </c>
       <c r="U79" s="18" t="s">
         <v>551</v>
@@ -12118,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB79" s="17">
         <v>4</v>
@@ -12136,33 +12155,33 @@
       <c r="AG79" s="20"/>
       <c r="AH79" s="21"/>
       <c r="AI79" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C80" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G80" s="17">
-        <v>44.691090000000003</v>
+        <v>44.613860000000003</v>
       </c>
       <c r="H80" s="17">
-        <v>-113.365281</v>
+        <v>-113.397036</v>
       </c>
       <c r="I80" s="17" t="s">
         <v>175</v>
@@ -12182,38 +12201,38 @@
       <c r="O80" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P80" s="22">
-        <v>4.3</v>
+      <c r="P80" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="R80" s="17">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="S80" s="18">
-        <v>40483</v>
+        <v>42234</v>
       </c>
       <c r="T80" s="18">
-        <v>43056</v>
+        <v>43313</v>
       </c>
       <c r="U80" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V80" s="18" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="W80" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="X80" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="Y80" s="18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Z80" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA80" s="17">
         <v>2</v>
@@ -12230,39 +12249,37 @@
       <c r="AE80" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF80" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="AF80" s="20"/>
       <c r="AG80" s="20"/>
       <c r="AH80" s="21"/>
       <c r="AI80" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C81" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>588</v>
+        <v>172</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G81" s="17">
-        <v>44.682794999999999</v>
+        <v>44.691090000000003</v>
       </c>
       <c r="H81" s="17">
-        <v>-113.35366</v>
+        <v>-113.365281</v>
       </c>
       <c r="I81" s="17" t="s">
         <v>175</v>
@@ -12283,43 +12300,43 @@
         <v>582</v>
       </c>
       <c r="P81" s="22">
-        <v>12.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q81" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="R81" s="17">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="S81" s="18">
-        <v>41760</v>
+        <v>40483</v>
       </c>
       <c r="T81" s="18">
-        <v>43600</v>
+        <v>43056</v>
       </c>
       <c r="U81" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V81" s="18" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="W81" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="X81" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y81" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z81" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA81" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB81" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC81" s="18" t="b">
         <v>1</v>
@@ -12336,15 +12353,15 @@
       <c r="AG81" s="20"/>
       <c r="AH81" s="21"/>
       <c r="AI81" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
-        <v>454</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C82" s="18" t="b">
         <v>0</v>
@@ -12353,16 +12370,16 @@
         <v>661</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G82" s="17">
-        <v>44.668593999999999</v>
+        <v>44.682794999999999</v>
       </c>
       <c r="H82" s="17">
-        <v>-113.31155</v>
+        <v>-113.35366</v>
       </c>
       <c r="I82" s="17" t="s">
         <v>175</v>
@@ -12382,18 +12399,20 @@
       <c r="O82" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P82" s="22"/>
+      <c r="P82" s="22">
+        <v>12.6</v>
+      </c>
       <c r="Q82" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="R82" s="17">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="S82" s="18">
-        <v>41559</v>
+        <v>41760</v>
       </c>
       <c r="T82" s="18">
-        <v>42350</v>
+        <v>43600</v>
       </c>
       <c r="U82" s="18" t="s">
         <v>528</v>
@@ -12401,106 +12420,110 @@
       <c r="V82" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="18"/>
+      <c r="W82" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="X82" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y82" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z82" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AA82" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB82" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC82" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD82" s="20"/>
-      <c r="AE82" s="20"/>
-      <c r="AF82" s="20"/>
+      <c r="AD82" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE82" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF82" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG82" s="20"/>
       <c r="AH82" s="21"/>
       <c r="AI82" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
-        <v>122</v>
+        <v>454</v>
       </c>
       <c r="B83" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C83" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G83" s="17">
-        <v>45.028530000000003</v>
+        <v>44.668593999999999</v>
       </c>
       <c r="H83" s="17">
-        <v>-113.916319</v>
+        <v>-113.31155</v>
       </c>
       <c r="I83" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K83" s="17" t="s">
-        <v>721</v>
+        <v>582</v>
       </c>
       <c r="M83" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="P83" s="22" t="s">
-        <v>230</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="P83" s="22"/>
       <c r="Q83" s="17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="R83" s="17">
-        <v>1262</v>
+        <v>1338</v>
       </c>
       <c r="S83" s="18">
-        <v>41164</v>
-      </c>
-      <c r="T83" s="18" t="s">
-        <v>230</v>
+        <v>41559</v>
+      </c>
+      <c r="T83" s="18">
+        <v>42350</v>
       </c>
       <c r="U83" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V83" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="W83" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X83" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y83" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z83" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W83" s="18"/>
+      <c r="X83" s="18"/>
+      <c r="Y83" s="18"/>
+      <c r="Z83" s="18"/>
       <c r="AA83" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB83" s="17">
         <v>6</v>
@@ -12508,25 +12531,21 @@
       <c r="AC83" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD83" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE83" s="20" t="s">
-        <v>522</v>
-      </c>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
       <c r="AF83" s="20"/>
       <c r="AG83" s="20"/>
       <c r="AH83" s="21"/>
       <c r="AI83" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C84" s="18" t="b">
         <v>1</v>
@@ -12541,10 +12560,10 @@
         <v>204</v>
       </c>
       <c r="G84" s="17">
-        <v>44.889763000000002</v>
+        <v>45.028530000000003</v>
       </c>
       <c r="H84" s="17">
-        <v>-113.964145</v>
+        <v>-113.916319</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>175</v>
@@ -12564,17 +12583,17 @@
       <c r="O84" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="P84" s="22">
-        <v>93.7</v>
+      <c r="P84" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q84" s="17" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R84" s="17">
-        <v>1285</v>
+        <v>1262</v>
       </c>
       <c r="S84" s="18">
-        <v>41151</v>
+        <v>41164</v>
       </c>
       <c r="T84" s="18" t="s">
         <v>230</v>
@@ -12614,121 +12633,117 @@
       </c>
       <c r="AF84" s="20"/>
       <c r="AG84" s="20"/>
-      <c r="AH84" s="21" t="s">
-        <v>575</v>
-      </c>
+      <c r="AH84" s="21"/>
       <c r="AI84" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C85" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>176</v>
+        <v>589</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G85" s="17">
-        <v>44.287737</v>
+        <v>44.889763000000002</v>
       </c>
       <c r="H85" s="17">
-        <v>-114.72045300000001</v>
+        <v>-113.964145</v>
       </c>
       <c r="I85" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K85" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M85" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O85" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="P85" s="22" t="s">
-        <v>230</v>
+        <v>722</v>
+      </c>
+      <c r="P85" s="22">
+        <v>93.7</v>
       </c>
       <c r="Q85" s="17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="R85" s="17">
-        <v>1419</v>
+        <v>1285</v>
       </c>
       <c r="S85" s="18">
-        <v>40997</v>
+        <v>41151</v>
       </c>
       <c r="T85" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U85" s="18" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="V85" s="18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="W85" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="X85" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="Y85" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z85" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA85" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB85" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC85" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD85" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE85" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF85" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG85" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="AH85" s="21"/>
+      <c r="AF85" s="20"/>
+      <c r="AG85" s="20"/>
+      <c r="AH85" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="AI85" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
-        <v>467</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C86" s="18" t="b">
         <v>0</v>
@@ -12737,16 +12752,16 @@
         <v>661</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>583</v>
+        <v>176</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G86" s="17">
-        <v>44.339058999999999</v>
+        <v>44.287737</v>
       </c>
       <c r="H86" s="17">
-        <v>-114.72163999999999</v>
+        <v>-114.72045300000001</v>
       </c>
       <c r="I86" s="17" t="s">
         <v>175</v>
@@ -12766,18 +12781,20 @@
       <c r="O86" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="P86" s="22"/>
+      <c r="P86" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="Q86" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="R86" s="17">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="S86" s="18">
-        <v>42370</v>
-      </c>
-      <c r="T86" s="18">
-        <v>43424</v>
+        <v>40997</v>
+      </c>
+      <c r="T86" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U86" s="18" t="s">
         <v>573</v>
@@ -12785,10 +12802,18 @@
       <c r="V86" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="18"/>
+      <c r="W86" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="X86" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y86" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z86" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AA86" s="17">
         <v>2</v>
       </c>
@@ -12796,50 +12821,58 @@
         <v>4</v>
       </c>
       <c r="AC86" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="20"/>
-      <c r="AE86" s="20"/>
-      <c r="AF86" s="20"/>
-      <c r="AG86" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD86" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE86" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF86" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG86" s="20" t="s">
+        <v>572</v>
+      </c>
       <c r="AH86" s="21"/>
       <c r="AI86" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
-        <v>125</v>
+        <v>467</v>
       </c>
       <c r="B87" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C87" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>177</v>
+        <v>583</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G87" s="17">
-        <v>44.221899999999998</v>
+        <v>44.339058999999999</v>
       </c>
       <c r="H87" s="17">
-        <v>-114.93146</v>
+        <v>-114.72163999999999</v>
       </c>
       <c r="I87" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>177</v>
+        <v>724</v>
       </c>
       <c r="M87" s="17" t="s">
         <v>589</v>
@@ -12850,70 +12883,56 @@
       <c r="O87" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="P87" s="22">
-        <v>16.3</v>
-      </c>
+      <c r="P87" s="22"/>
       <c r="Q87" s="17" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="R87" s="17">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="S87" s="18">
-        <v>37447</v>
+        <v>42370</v>
       </c>
       <c r="T87" s="18">
-        <v>41284</v>
+        <v>43424</v>
       </c>
       <c r="U87" s="18" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="V87" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="W87" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X87" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y87" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z87" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="W87" s="18"/>
+      <c r="X87" s="18"/>
+      <c r="Y87" s="18"/>
+      <c r="Z87" s="18"/>
       <c r="AA87" s="17">
         <v>2</v>
       </c>
       <c r="AB87" s="17">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AC87" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD87" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE87" s="20" t="s">
-        <v>522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD87" s="20"/>
+      <c r="AE87" s="20"/>
       <c r="AF87" s="20"/>
       <c r="AG87" s="20"/>
       <c r="AH87" s="21"/>
       <c r="AI87" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C88" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>661</v>
@@ -12925,10 +12944,10 @@
         <v>204</v>
       </c>
       <c r="G88" s="17">
-        <v>44.218671999999998</v>
+        <v>44.221899999999998</v>
       </c>
       <c r="H88" s="17">
-        <v>-114.94215</v>
+        <v>-114.93146</v>
       </c>
       <c r="I88" s="17" t="s">
         <v>175</v>
@@ -12952,16 +12971,16 @@
         <v>16.3</v>
       </c>
       <c r="Q88" s="17" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="R88" s="17">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="S88" s="18">
         <v>37447</v>
       </c>
       <c r="T88" s="18">
-        <v>44417</v>
+        <v>41284</v>
       </c>
       <c r="U88" s="18" t="s">
         <v>577</v>
@@ -12976,22 +12995,22 @@
         <v>535</v>
       </c>
       <c r="Y88" s="18" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="Z88" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA88" s="17">
         <v>2</v>
       </c>
       <c r="AB88" s="17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC88" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD88" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AE88" s="20" t="s">
         <v>522</v>
@@ -13000,15 +13019,15 @@
       <c r="AG88" s="20"/>
       <c r="AH88" s="21"/>
       <c r="AI88" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>474</v>
       </c>
       <c r="C89" s="18" t="b">
         <v>0</v>
@@ -13017,25 +13036,25 @@
         <v>661</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G89" s="17">
-        <v>44.164726999999999</v>
+        <v>44.218671999999998</v>
       </c>
       <c r="H89" s="17">
-        <v>-114.90504300000001</v>
+        <v>-114.94215</v>
       </c>
       <c r="I89" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>728</v>
+        <v>177</v>
       </c>
       <c r="M89" s="17" t="s">
         <v>589</v>
@@ -13047,25 +13066,25 @@
         <v>725</v>
       </c>
       <c r="P89" s="22">
-        <v>1.9</v>
+        <v>16.3</v>
       </c>
       <c r="Q89" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="R89" s="17">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="S89" s="18">
-        <v>43191</v>
-      </c>
-      <c r="T89" s="18" t="s">
-        <v>230</v>
+        <v>37447</v>
+      </c>
+      <c r="T89" s="18">
+        <v>44417</v>
       </c>
       <c r="U89" s="18" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="V89" s="18" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="W89" s="18" t="s">
         <v>535</v>
@@ -13074,19 +13093,19 @@
         <v>535</v>
       </c>
       <c r="Y89" s="18" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="Z89" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB89" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC89" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD89" s="20" t="s">
         <v>527</v>
@@ -13095,77 +13114,75 @@
         <v>522</v>
       </c>
       <c r="AF89" s="20"/>
-      <c r="AG89" s="20" t="s">
-        <v>578</v>
-      </c>
+      <c r="AG89" s="20"/>
       <c r="AH89" s="21"/>
       <c r="AI89" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>479</v>
+        <v>178</v>
       </c>
       <c r="C90" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G90" s="17">
-        <v>45.767740000000003</v>
+        <v>44.164726999999999</v>
       </c>
       <c r="H90" s="17">
-        <v>-116.74403700000001</v>
+        <v>-114.90504300000001</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>695</v>
+        <v>175</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M90" s="17" t="s">
-        <v>150</v>
+        <v>589</v>
       </c>
       <c r="N90" s="17" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="O90" s="17" t="s">
-        <v>150</v>
+        <v>725</v>
       </c>
       <c r="P90" s="22">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q90" s="17" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="R90" s="17">
-        <v>837</v>
+        <v>1441</v>
       </c>
       <c r="S90" s="18">
-        <v>40544</v>
+        <v>43191</v>
       </c>
       <c r="T90" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U90" s="18" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="V90" s="18" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="W90" s="18" t="s">
         <v>535</v>
@@ -13174,19 +13191,19 @@
         <v>535</v>
       </c>
       <c r="Y90" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z90" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA90" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB90" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC90" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD90" s="20" t="s">
         <v>527</v>
@@ -13196,37 +13213,37 @@
       </c>
       <c r="AF90" s="20"/>
       <c r="AG90" s="20" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="AH90" s="21"/>
       <c r="AI90" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>659</v>
+        <v>479</v>
       </c>
       <c r="C91" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G91" s="17">
-        <v>45.194276000000002</v>
+        <v>45.767740000000003</v>
       </c>
       <c r="H91" s="17">
-        <v>-116.868663</v>
+        <v>-116.74403700000001</v>
       </c>
       <c r="I91" s="17" t="s">
         <v>695</v>
@@ -13247,34 +13264,34 @@
         <v>150</v>
       </c>
       <c r="P91" s="22">
-        <v>15.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q91" s="17" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="R91" s="17">
-        <v>914</v>
+        <v>837</v>
       </c>
       <c r="S91" s="18">
-        <v>42142</v>
-      </c>
-      <c r="T91" s="18">
-        <v>43278</v>
+        <v>40544</v>
+      </c>
+      <c r="T91" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U91" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="V91" s="18" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="W91" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="X91" s="18" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="Y91" s="18" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="Z91" s="18" t="b">
         <v>1</v>
@@ -13283,7 +13300,7 @@
         <v>2</v>
       </c>
       <c r="AB91" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AC91" s="18" t="b">
         <v>1</v>
@@ -13296,25 +13313,25 @@
       </c>
       <c r="AF91" s="20"/>
       <c r="AG91" s="20" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="AH91" s="21"/>
-      <c r="AI91" s="20" t="s">
-        <v>598</v>
+      <c r="AI91" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>482</v>
+        <v>659</v>
       </c>
       <c r="C92" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>150</v>
@@ -13323,10 +13340,10 @@
         <v>203</v>
       </c>
       <c r="G92" s="17">
-        <v>45.761051999999999</v>
+        <v>45.194276000000002</v>
       </c>
       <c r="H92" s="17">
-        <v>-116.750231</v>
+        <v>-116.868663</v>
       </c>
       <c r="I92" s="17" t="s">
         <v>695</v>
@@ -13347,68 +13364,68 @@
         <v>150</v>
       </c>
       <c r="P92" s="22">
-        <v>96</v>
+        <v>15.8</v>
       </c>
       <c r="Q92" s="17" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="R92" s="17">
-        <v>837</v>
+        <v>914</v>
       </c>
       <c r="S92" s="18">
-        <v>40513</v>
-      </c>
-      <c r="T92" s="18" t="s">
-        <v>230</v>
+        <v>42142</v>
+      </c>
+      <c r="T92" s="18">
+        <v>43278</v>
       </c>
       <c r="U92" s="18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="V92" s="18" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="W92" s="18" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="X92" s="18" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="Y92" s="18" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="Z92" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA92" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB92" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC92" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD92" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE92" s="20" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="AF92" s="20"/>
       <c r="AG92" s="20" t="s">
         <v>22</v>
       </c>
       <c r="AH92" s="21"/>
-      <c r="AI92" t="s">
-        <v>484</v>
+      <c r="AI92" s="20" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C93" s="18" t="b">
         <v>1</v>
@@ -13423,10 +13440,10 @@
         <v>203</v>
       </c>
       <c r="G93" s="17">
-        <v>45.742702000000001</v>
+        <v>45.761051999999999</v>
       </c>
       <c r="H93" s="17">
-        <v>-116.764304</v>
+        <v>-116.750231</v>
       </c>
       <c r="I93" s="17" t="s">
         <v>695</v>
@@ -13447,16 +13464,16 @@
         <v>150</v>
       </c>
       <c r="P93" s="22">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q93" s="17" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="R93" s="17">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="S93" s="18">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="T93" s="18" t="s">
         <v>230</v>
@@ -13483,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="AB93" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC93" s="18" t="b">
         <v>1</v>
@@ -13500,42 +13517,42 @@
       </c>
       <c r="AH93" s="21"/>
       <c r="AI93" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C94" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G94" s="17">
-        <v>45.554828000000001</v>
+        <v>45.742702000000001</v>
       </c>
       <c r="H94" s="17">
-        <v>-116.872927</v>
+        <v>-116.764304</v>
       </c>
       <c r="I94" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K94" s="17" t="s">
-        <v>152</v>
+        <v>730</v>
       </c>
       <c r="M94" s="17" t="s">
         <v>150</v>
@@ -13547,16 +13564,16 @@
         <v>150</v>
       </c>
       <c r="P94" s="22">
-        <v>4.4000000000000004</v>
+        <v>88</v>
       </c>
       <c r="Q94" s="17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="R94" s="17">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="S94" s="18">
-        <v>41320</v>
+        <v>40483</v>
       </c>
       <c r="T94" s="18" t="s">
         <v>230</v>
@@ -13565,7 +13582,7 @@
         <v>523</v>
       </c>
       <c r="V94" s="18" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="W94" s="18" t="s">
         <v>535</v>
@@ -13574,41 +13591,41 @@
         <v>535</v>
       </c>
       <c r="Y94" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z94" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA94" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB94" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC94" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD94" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AE94" s="20" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="AF94" s="20"/>
       <c r="AG94" s="20" t="s">
-        <v>552</v>
+        <v>22</v>
       </c>
       <c r="AH94" s="21"/>
       <c r="AI94" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
-        <v>491</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C95" s="18" t="b">
         <v>0</v>
@@ -13617,16 +13634,16 @@
         <v>661</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>584</v>
+        <v>151</v>
       </c>
       <c r="F95" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G95" s="17">
-        <v>45.516989000000002</v>
+        <v>45.554828000000001</v>
       </c>
       <c r="H95" s="17">
-        <v>-116.868492</v>
+        <v>-116.872927</v>
       </c>
       <c r="I95" s="17" t="s">
         <v>695</v>
@@ -13646,15 +13663,17 @@
       <c r="O95" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P95" s="22"/>
+      <c r="P95" s="22">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="Q95" s="17" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="R95" s="17">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="S95" s="18">
-        <v>44992</v>
+        <v>41320</v>
       </c>
       <c r="T95" s="18" t="s">
         <v>230</v>
@@ -13665,9 +13684,15 @@
       <c r="V95" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18"/>
-      <c r="Y95" s="18"/>
+      <c r="W95" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="X95" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y95" s="18" t="s">
+        <v>536</v>
+      </c>
       <c r="Z95" s="18" t="b">
         <v>1</v>
       </c>
@@ -13680,39 +13705,45 @@
       <c r="AC95" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD95" s="20"/>
-      <c r="AE95" s="20"/>
+      <c r="AD95" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE95" s="20" t="s">
+        <v>522</v>
+      </c>
       <c r="AF95" s="20"/>
-      <c r="AG95" s="20"/>
+      <c r="AG95" s="20" t="s">
+        <v>552</v>
+      </c>
       <c r="AH95" s="21"/>
       <c r="AI95" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="B96" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C96" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>152</v>
+        <v>584</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G96" s="17">
-        <v>45.506481999999998</v>
+        <v>45.516989000000002</v>
       </c>
       <c r="H96" s="17">
-        <v>-116.850735</v>
+        <v>-116.868492</v>
       </c>
       <c r="I96" s="17" t="s">
         <v>695</v>
@@ -13732,17 +13763,15 @@
       <c r="O96" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P96" s="22">
-        <v>18.7</v>
-      </c>
+      <c r="P96" s="22"/>
       <c r="Q96" s="17" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="R96" s="17">
         <v>868</v>
       </c>
       <c r="S96" s="18">
-        <v>40452</v>
+        <v>44992</v>
       </c>
       <c r="T96" s="18" t="s">
         <v>230</v>
@@ -13751,17 +13780,11 @@
         <v>523</v>
       </c>
       <c r="V96" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="W96" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X96" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y96" s="18" t="s">
-        <v>540</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="W96" s="18"/>
+      <c r="X96" s="18"/>
+      <c r="Y96" s="18"/>
       <c r="Z96" s="18" t="b">
         <v>1</v>
       </c>
@@ -13774,27 +13797,21 @@
       <c r="AC96" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD96" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE96" s="20" t="s">
-        <v>522</v>
-      </c>
+      <c r="AD96" s="20"/>
+      <c r="AE96" s="20"/>
       <c r="AF96" s="20"/>
-      <c r="AG96" s="20" t="s">
-        <v>552</v>
-      </c>
+      <c r="AG96" s="20"/>
       <c r="AH96" s="21"/>
       <c r="AI96" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C97" s="18" t="b">
         <v>1</v>
@@ -13803,25 +13820,25 @@
         <v>661</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G97" s="17">
-        <v>45.489956999999997</v>
+        <v>45.506481999999998</v>
       </c>
       <c r="H97" s="17">
-        <v>-116.804096</v>
+        <v>-116.850735</v>
       </c>
       <c r="I97" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K97" s="17" t="s">
-        <v>730</v>
+        <v>152</v>
       </c>
       <c r="M97" s="17" t="s">
         <v>150</v>
@@ -13833,16 +13850,16 @@
         <v>150</v>
       </c>
       <c r="P97" s="22">
-        <v>33</v>
+        <v>18.7</v>
       </c>
       <c r="Q97" s="17" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="R97" s="17">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="S97" s="18">
-        <v>40575</v>
+        <v>40452</v>
       </c>
       <c r="T97" s="18" t="s">
         <v>230</v>
@@ -13869,7 +13886,7 @@
         <v>2</v>
       </c>
       <c r="AB97" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC97" s="18" t="b">
         <v>1</v>
@@ -13882,37 +13899,37 @@
       </c>
       <c r="AF97" s="20"/>
       <c r="AG97" s="20" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="AH97" s="21"/>
       <c r="AI97" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C98" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G98" s="17">
-        <v>45.328017000000003</v>
+        <v>45.489956999999997</v>
       </c>
       <c r="H98" s="17">
-        <v>-116.806641</v>
+        <v>-116.804096</v>
       </c>
       <c r="I98" s="17" t="s">
         <v>695</v>
@@ -13932,17 +13949,17 @@
       <c r="O98" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P98" s="22" t="s">
-        <v>230</v>
+      <c r="P98" s="22">
+        <v>33</v>
       </c>
       <c r="Q98" s="17" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="R98" s="17">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="S98" s="18">
-        <v>43908</v>
+        <v>40575</v>
       </c>
       <c r="T98" s="18" t="s">
         <v>230</v>
@@ -13951,7 +13968,7 @@
         <v>523</v>
       </c>
       <c r="V98" s="18" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="W98" s="18" t="s">
         <v>535</v>
@@ -13960,7 +13977,7 @@
         <v>535</v>
       </c>
       <c r="Y98" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z98" s="18" t="b">
         <v>1</v>
@@ -13969,32 +13986,32 @@
         <v>2</v>
       </c>
       <c r="AB98" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC98" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD98" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AE98" s="20" t="s">
         <v>522</v>
       </c>
       <c r="AF98" s="20"/>
       <c r="AG98" s="20" t="s">
-        <v>552</v>
+        <v>22</v>
       </c>
       <c r="AH98" s="21"/>
       <c r="AI98" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C99" s="18" t="b">
         <v>0</v>
@@ -14003,16 +14020,16 @@
         <v>661</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G99" s="17">
-        <v>45.229300000000002</v>
+        <v>45.328017000000003</v>
       </c>
       <c r="H99" s="17">
-        <v>-116.84478</v>
+        <v>-116.806641</v>
       </c>
       <c r="I99" s="17" t="s">
         <v>695</v>
@@ -14032,17 +14049,17 @@
       <c r="O99" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P99" s="22">
-        <v>1.2</v>
+      <c r="P99" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q99" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="R99" s="17">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="S99" s="18">
-        <v>41586</v>
+        <v>43908</v>
       </c>
       <c r="T99" s="18" t="s">
         <v>230</v>
@@ -14069,7 +14086,7 @@
         <v>2</v>
       </c>
       <c r="AB99" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC99" s="18" t="b">
         <v>1</v>
@@ -14086,15 +14103,15 @@
       </c>
       <c r="AH99" s="21"/>
       <c r="AI99" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C100" s="18" t="b">
         <v>0</v>
@@ -14103,16 +14120,16 @@
         <v>661</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G100" s="17">
-        <v>45.194459999999999</v>
+        <v>45.229300000000002</v>
       </c>
       <c r="H100" s="17">
-        <v>-116.868774</v>
+        <v>-116.84478</v>
       </c>
       <c r="I100" s="17" t="s">
         <v>695</v>
@@ -14133,34 +14150,34 @@
         <v>150</v>
       </c>
       <c r="P100" s="22">
-        <v>15.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q100" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R100" s="17">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="S100" s="18">
-        <v>42600</v>
+        <v>41586</v>
       </c>
       <c r="T100" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U100" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="V100" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="W100" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="X100" s="18" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="Y100" s="18" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="Z100" s="18" t="b">
         <v>1</v>
@@ -14169,7 +14186,7 @@
         <v>2</v>
       </c>
       <c r="AB100" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC100" s="18" t="b">
         <v>1</v>
@@ -14182,21 +14199,19 @@
       </c>
       <c r="AF100" s="20"/>
       <c r="AG100" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH100" s="21" t="s">
-        <v>598</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="AH100" s="21"/>
       <c r="AI100" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B101" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C101" s="18" t="b">
         <v>0</v>
@@ -14211,10 +14226,10 @@
         <v>203</v>
       </c>
       <c r="G101" s="17">
-        <v>45.193187999999999</v>
+        <v>45.194459999999999</v>
       </c>
       <c r="H101" s="17">
-        <v>-116.868593</v>
+        <v>-116.868774</v>
       </c>
       <c r="I101" s="17" t="s">
         <v>695</v>
@@ -14271,7 +14286,7 @@
         <v>2</v>
       </c>
       <c r="AB101" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC101" s="18" t="b">
         <v>1</v>
@@ -14284,12 +14299,114 @@
       </c>
       <c r="AF101" s="20"/>
       <c r="AG101" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH101" s="21" t="s">
         <v>598</v>
       </c>
       <c r="AI101" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A102" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>510</v>
+      </c>
+      <c r="C102" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G102" s="17">
+        <v>45.193187999999999</v>
+      </c>
+      <c r="H102" s="17">
+        <v>-116.868593</v>
+      </c>
+      <c r="I102" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="K102" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="M102" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N102" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O102" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P102" s="22">
+        <v>15.8</v>
+      </c>
+      <c r="Q102" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R102" s="17">
+        <v>914</v>
+      </c>
+      <c r="S102" s="18">
+        <v>42600</v>
+      </c>
+      <c r="T102" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="U102" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="V102" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="W102" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="X102" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y102" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z102" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA102" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB102" s="17">
+        <v>8</v>
+      </c>
+      <c r="AC102" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE102" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF102" s="20"/>
+      <c r="AG102" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH102" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI102" t="s">
         <v>511</v>
       </c>
     </row>

--- a/docs/Snake River IPTDS Prioritization 20230814.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230814.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23F220-D765-47EB-AF1F-74CEF7E235EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91B86C-959D-4195-9602-B1A82680D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36705" yWindow="1695" windowWidth="12150" windowHeight="11370" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="validation" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SR_IPTDS_Sites!$A$1:$AI$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SR_IPTDS_Sites!$A$1:$AI$104</definedName>
     <definedName name="figure_1_outcomes">validation!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="869">
   <si>
     <t>stream</t>
   </si>
@@ -2938,6 +2938,30 @@
   </si>
   <si>
     <t>Bedrock Creek is a tributary of the lower Clearwater River, Idaho. The confluence of Bedrock Creek is on the north side of the Clearwater River at river kilometer 42. Bedrock Creek is approximately 12.7 miles long, draining 25,650 acres, and is considered a minor spawning area for Snake River summer steelhead within the Lower Mainstem Clearwater steelhead population. The Bedrock Creek interrogation site was installed as a temporary and seasonal site at river kilometer 1.0 to estimate steelhead abundance within the Bedrock Creek spawning aggregate because an interrogation site downstream of the Lower Mainstem Clearwater capable of providing a population estimate for the population area does not exist.</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>Sawtooth Hatchery Adult Trap</t>
+  </si>
+  <si>
+    <t>522.303.617.000</t>
+  </si>
+  <si>
+    <t>This array is located in the ladder of the Sawtooth Hatchery adult fish trap. The array consists of four antennas, a top-water (30x50) and submerged (18x18) antenna on both a down-ladder dam-board and an up-ladder dam-board. All fish migrating up the Salmon River that try to migrate upstream of the satellite facility are forced into the ladder via a removable weir. This weir is a permanent structure with removable panels that is very effective at blocking the upriver movement of fish. Fish have the freedom to move into and out of the ladder at will and are not trapped until they jump a finger weir that is above all array antennas. Adult Chinook salmon that swim past the array and enter the ladder are sorted by origin. Natural origin fish are returned to the Salmon River above the weir while hatchery origin fish are typically ponded and later spawned, recycled through the fishery, or released elsewhere in the basin. Site is no longer active.</t>
+  </si>
+  <si>
+    <t>LGW</t>
+  </si>
+  <si>
+    <t>Lookingglass Creek Weir</t>
+  </si>
+  <si>
+    <t>522.271.137.004</t>
+  </si>
+  <si>
+    <t>Instream detection array located in Lookingglass Creek, upstream from the hatchery at the hatchery water intake adult fish ladder. This ladder allows adult fish passage to upper Lookingglass Creek to spawn. The site includes two pass-through antennas located in the adult fish ladder associated with the hatchery water intake. Antennas are powered by synchronized Biomark IS1001's. The site is on grid power and manually downloaded.</t>
   </si>
 </sst>
 </file>
@@ -4393,13 +4417,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
-  <dimension ref="A1:AI102"/>
+  <dimension ref="A1:AI104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI21" sqref="AI21"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8580,37 +8604,37 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>66</v>
+        <v>865</v>
       </c>
       <c r="B43" t="s">
-        <v>337</v>
+        <v>866</v>
       </c>
       <c r="C43" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>145</v>
+        <v>746</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G43" s="17">
-        <v>45.593519999999998</v>
+        <v>45.735104999999997</v>
       </c>
       <c r="H43" s="17">
-        <v>-117.903379</v>
+        <v>-117.863445</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="M43" s="17" t="s">
         <v>145</v>
@@ -8621,98 +8645,82 @@
       <c r="O43" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="P43" s="22">
-        <v>88.1</v>
-      </c>
+      <c r="P43" s="22"/>
       <c r="Q43" s="17" t="s">
-        <v>338</v>
+        <v>867</v>
       </c>
       <c r="R43" s="17">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="S43" s="18">
-        <v>41200</v>
+        <v>44866</v>
       </c>
       <c r="T43" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U43" s="18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="V43" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="W43" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X43" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y43" s="18" t="s">
-        <v>540</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
       <c r="Z43" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA43" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB43" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC43" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD43" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE43" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
       <c r="AF43" s="20"/>
-      <c r="AG43" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH43" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>339</v>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="26" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>656</v>
+        <v>337</v>
       </c>
       <c r="C44" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G44">
-        <v>45.190964000000001</v>
-      </c>
-      <c r="H44">
-        <v>-117.82861699999999</v>
+      <c r="G44" s="17">
+        <v>45.593519999999998</v>
+      </c>
+      <c r="H44" s="17">
+        <v>-117.903379</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>146</v>
+        <v>734</v>
       </c>
       <c r="M44" s="17" t="s">
         <v>145</v>
@@ -8723,75 +8731,77 @@
       <c r="O44" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="P44" s="22" t="s">
-        <v>230</v>
+      <c r="P44" s="22">
+        <v>88.1</v>
       </c>
       <c r="Q44" s="17" t="s">
-        <v>657</v>
+        <v>338</v>
       </c>
       <c r="R44" s="17">
-        <v>1057</v>
+        <v>948</v>
       </c>
       <c r="S44" s="18">
-        <v>42065</v>
-      </c>
-      <c r="T44" s="18">
-        <v>44671</v>
+        <v>41200</v>
+      </c>
+      <c r="T44" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U44" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="V44" s="18" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="W44" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="X44" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z44" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA44" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC44" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD44" s="20" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AE44" s="20" t="s">
-        <v>522</v>
+        <v>19</v>
       </c>
       <c r="AF44" s="20"/>
       <c r="AG44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AH44" s="21"/>
+      <c r="AH44" s="21" t="s">
+        <v>555</v>
+      </c>
       <c r="AI44" t="s">
-        <v>658</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>656</v>
       </c>
       <c r="C45" s="18" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>146</v>
@@ -8799,11 +8809,11 @@
       <c r="F45" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G45" s="17">
-        <v>45.215252</v>
-      </c>
-      <c r="H45" s="17">
-        <v>-117.900689</v>
+      <c r="G45">
+        <v>45.190964000000001</v>
+      </c>
+      <c r="H45">
+        <v>-117.82861699999999</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>695</v>
@@ -8827,16 +8837,16 @@
         <v>230</v>
       </c>
       <c r="Q45" s="17" t="s">
-        <v>341</v>
+        <v>657</v>
       </c>
       <c r="R45" s="17">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="S45" s="18">
-        <v>43453</v>
-      </c>
-      <c r="T45" s="18" t="s">
-        <v>230</v>
+        <v>42065</v>
+      </c>
+      <c r="T45" s="18">
+        <v>44671</v>
       </c>
       <c r="U45" s="18" t="s">
         <v>553</v>
@@ -8845,13 +8855,13 @@
         <v>553</v>
       </c>
       <c r="W45" s="18" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="X45" s="18" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="Y45" s="18" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Z45" s="18" t="b">
         <v>1</v>
@@ -8869,25 +8879,23 @@
         <v>526</v>
       </c>
       <c r="AE45" s="20" t="s">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="AF45" s="20"/>
       <c r="AG45" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AH45" s="21" t="s">
-        <v>556</v>
-      </c>
+      <c r="AH45" s="21"/>
       <c r="AI45" t="s">
-        <v>342</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C46" s="18" t="b">
         <v>0</v>
@@ -8896,25 +8904,25 @@
         <v>661</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G46" s="17">
-        <v>45.248955000000002</v>
+        <v>45.215252</v>
       </c>
       <c r="H46" s="17">
-        <v>-118.388958</v>
+        <v>-117.900689</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>701</v>
+        <v>146</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>145</v>
@@ -8925,20 +8933,20 @@
       <c r="O46" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="P46" s="22">
-        <v>14</v>
+      <c r="P46" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q46" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R46" s="17">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="S46" s="18">
-        <v>43042</v>
-      </c>
-      <c r="T46" s="18">
-        <v>44665</v>
+        <v>43453</v>
+      </c>
+      <c r="T46" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U46" s="18" t="s">
         <v>553</v>
@@ -8950,7 +8958,7 @@
         <v>535</v>
       </c>
       <c r="X46" s="18" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="Y46" s="18" t="s">
         <v>536</v>
@@ -8959,10 +8967,10 @@
         <v>1</v>
       </c>
       <c r="AA46" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB46" s="17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AC46" s="18" t="b">
         <v>1</v>
@@ -8978,18 +8986,18 @@
         <v>22</v>
       </c>
       <c r="AH46" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AI46" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C47" s="18" t="b">
         <v>0</v>
@@ -8998,61 +9006,61 @@
         <v>661</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G47" s="17">
-        <v>45.758183000000002</v>
+        <v>45.248955000000002</v>
       </c>
       <c r="H47" s="17">
-        <v>-116.306603</v>
+        <v>-118.388958</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>157</v>
+        <v>695</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>589</v>
+        <v>145</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="P47" s="22" t="s">
-        <v>230</v>
+        <v>701</v>
+      </c>
+      <c r="P47" s="22">
+        <v>14</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R47" s="17">
-        <v>913</v>
+        <v>1084</v>
       </c>
       <c r="S47" s="18">
-        <v>44210</v>
-      </c>
-      <c r="T47" s="18" t="s">
-        <v>230</v>
+        <v>43042</v>
+      </c>
+      <c r="T47" s="18">
+        <v>44665</v>
       </c>
       <c r="U47" s="18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="V47" s="18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="W47" s="18" t="s">
         <v>535</v>
       </c>
       <c r="X47" s="18" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="Y47" s="18" t="s">
         <v>536</v>
@@ -9061,81 +9069,85 @@
         <v>1</v>
       </c>
       <c r="AA47" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB47" s="17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AC47" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD47" s="20" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="AE47" s="20" t="s">
-        <v>522</v>
+        <v>19</v>
       </c>
       <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="21"/>
+      <c r="AG47" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH47" s="21" t="s">
+        <v>558</v>
+      </c>
       <c r="AI47" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C48" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G48" s="17">
-        <v>45.175659000000003</v>
+        <v>45.758183000000002</v>
       </c>
       <c r="H48" s="17">
-        <v>-115.579712</v>
+        <v>-116.306603</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>157</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M48" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="P48" s="22">
-        <v>96.3</v>
+        <v>706</v>
+      </c>
+      <c r="P48" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q48" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="R48" s="17">
-        <v>1070</v>
+        <v>913</v>
       </c>
       <c r="S48" s="18">
-        <v>39873</v>
+        <v>44210</v>
       </c>
       <c r="T48" s="18" t="s">
         <v>230</v>
@@ -9144,7 +9156,7 @@
         <v>523</v>
       </c>
       <c r="V48" s="18" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="W48" s="18" t="s">
         <v>535</v>
@@ -9153,16 +9165,16 @@
         <v>535</v>
       </c>
       <c r="Y48" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z48" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA48" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB48" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC48" s="18" t="b">
         <v>1</v>
@@ -9177,15 +9189,15 @@
       <c r="AG48" s="20"/>
       <c r="AH48" s="21"/>
       <c r="AI48" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C49" s="18" t="b">
         <v>1</v>
@@ -9194,49 +9206,49 @@
         <v>661</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G49" s="17">
-        <v>45.033299999999997</v>
+        <v>45.175659000000003</v>
       </c>
       <c r="H49" s="17">
-        <v>-115.73302</v>
+        <v>-115.579712</v>
       </c>
       <c r="I49" s="17" t="s">
         <v>157</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>159</v>
+        <v>708</v>
       </c>
       <c r="M49" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P49" s="22">
-        <v>99.2</v>
+        <v>96.3</v>
       </c>
       <c r="Q49" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="R49" s="17">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="S49" s="18">
         <v>39873</v>
       </c>
-      <c r="T49" s="18">
-        <v>41011</v>
+      <c r="T49" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U49" s="18" t="s">
         <v>523</v>
@@ -9257,10 +9269,10 @@
         <v>1</v>
       </c>
       <c r="AA49" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB49" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AC49" s="18" t="b">
         <v>1</v>
@@ -9269,21 +9281,21 @@
         <v>521</v>
       </c>
       <c r="AE49" s="20" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="AF49" s="20"/>
       <c r="AG49" s="20"/>
       <c r="AH49" s="21"/>
       <c r="AI49" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C50" s="18" t="b">
         <v>1</v>
@@ -9292,49 +9304,49 @@
         <v>661</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G50" s="17">
-        <v>44.956204999999997</v>
+        <v>45.033299999999997</v>
       </c>
       <c r="H50" s="17">
-        <v>-115.53315000000001</v>
+        <v>-115.73302</v>
       </c>
       <c r="I50" s="17" t="s">
         <v>157</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M50" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P50" s="22">
-        <v>45.9</v>
+        <v>99.2</v>
       </c>
       <c r="Q50" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="R50" s="17">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="S50" s="18">
         <v>39873</v>
       </c>
-      <c r="T50" s="18" t="s">
-        <v>230</v>
+      <c r="T50" s="18">
+        <v>41011</v>
       </c>
       <c r="U50" s="18" t="s">
         <v>523</v>
@@ -9358,7 +9370,7 @@
         <v>2</v>
       </c>
       <c r="AB50" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC50" s="18" t="b">
         <v>1</v>
@@ -9367,24 +9379,24 @@
         <v>521</v>
       </c>
       <c r="AE50" s="20" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AF50" s="20"/>
       <c r="AG50" s="20"/>
       <c r="AH50" s="21"/>
       <c r="AI50" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C51" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>661</v>
@@ -9396,10 +9408,10 @@
         <v>204</v>
       </c>
       <c r="G51" s="17">
-        <v>44.928995</v>
+        <v>44.956204999999997</v>
       </c>
       <c r="H51" s="17">
-        <v>-115.333883</v>
+        <v>-115.53315000000001</v>
       </c>
       <c r="I51" s="17" t="s">
         <v>157</v>
@@ -9419,35 +9431,35 @@
       <c r="O51" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="P51" s="22" t="s">
-        <v>230</v>
+      <c r="P51" s="22">
+        <v>45.9</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="R51" s="17">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="S51" s="18">
-        <v>42978</v>
+        <v>39873</v>
       </c>
       <c r="T51" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>736</v>
+        <v>523</v>
       </c>
       <c r="V51" s="18" t="s">
-        <v>736</v>
+        <v>539</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>735</v>
+        <v>535</v>
       </c>
       <c r="X51" s="18" t="s">
-        <v>736</v>
+        <v>535</v>
       </c>
       <c r="Y51" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z51" s="18" t="b">
         <v>1</v>
@@ -9456,57 +9468,57 @@
         <v>2</v>
       </c>
       <c r="AB51" s="17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AC51" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD51" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AE51" s="20" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="AF51" s="20"/>
       <c r="AG51" s="20"/>
       <c r="AH51" s="21"/>
       <c r="AI51" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C52" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G52" s="17">
-        <v>44.978471999999996</v>
+        <v>44.928995</v>
       </c>
       <c r="H52" s="17">
-        <v>-115.726994</v>
+        <v>-115.333883</v>
       </c>
       <c r="I52" s="17" t="s">
         <v>157</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>708</v>
+        <v>158</v>
       </c>
       <c r="M52" s="17" t="s">
         <v>589</v>
@@ -9517,35 +9529,35 @@
       <c r="O52" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="P52" s="22">
-        <v>38.700000000000003</v>
+      <c r="P52" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="R52" s="17">
-        <v>1105</v>
+        <v>1142</v>
       </c>
       <c r="S52" s="18">
-        <v>39469</v>
-      </c>
-      <c r="T52" s="18">
-        <v>44047</v>
+        <v>42978</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U52" s="18" t="s">
-        <v>523</v>
+        <v>736</v>
       </c>
       <c r="V52" s="18" t="s">
-        <v>539</v>
+        <v>736</v>
       </c>
       <c r="W52" s="18" t="s">
-        <v>535</v>
+        <v>735</v>
       </c>
       <c r="X52" s="18" t="s">
-        <v>535</v>
+        <v>736</v>
       </c>
       <c r="Y52" s="18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Z52" s="18" t="b">
         <v>1</v>
@@ -9554,30 +9566,30 @@
         <v>2</v>
       </c>
       <c r="AB52" s="17">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AC52" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD52" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE52" s="20" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AF52" s="20"/>
       <c r="AG52" s="20"/>
       <c r="AH52" s="21"/>
       <c r="AI52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C53" s="18" t="b">
         <v>1</v>
@@ -9586,52 +9598,52 @@
         <v>661</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G53" s="17">
-        <v>45.103532000000001</v>
+        <v>44.978471999999996</v>
       </c>
       <c r="H53" s="17">
-        <v>-114.85381700000001</v>
+        <v>-115.726994</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>711</v>
+        <v>157</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="K53" s="17" t="s">
-        <v>155</v>
+        <v>708</v>
       </c>
       <c r="M53" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>713</v>
+        <v>157</v>
       </c>
       <c r="P53" s="22">
-        <v>37.9</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="Q53" s="17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R53" s="17">
-        <v>1184</v>
+        <v>1105</v>
       </c>
       <c r="S53" s="18">
-        <v>38899</v>
+        <v>39469</v>
       </c>
       <c r="T53" s="18">
-        <v>43018</v>
+        <v>44047</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="V53" s="18" t="s">
         <v>539</v>
@@ -9652,7 +9664,7 @@
         <v>2</v>
       </c>
       <c r="AB53" s="17">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AC53" s="18" t="b">
         <v>1</v>
@@ -9661,134 +9673,148 @@
         <v>521</v>
       </c>
       <c r="AE53" s="20" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AF53" s="20"/>
       <c r="AG53" s="20"/>
-      <c r="AH53" s="21" t="s">
-        <v>563</v>
-      </c>
+      <c r="AH53" s="21"/>
       <c r="AI53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C54" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>581</v>
+        <v>155</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G54" s="17">
-        <v>44.427939000000002</v>
+        <v>45.103532000000001</v>
       </c>
       <c r="H54" s="17">
-        <v>-115.284171</v>
+        <v>-114.85381700000001</v>
       </c>
       <c r="I54" s="17" t="s">
         <v>711</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>581</v>
+        <v>155</v>
       </c>
       <c r="M54" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="P54" s="22"/>
+        <v>713</v>
+      </c>
+      <c r="P54" s="22">
+        <v>37.9</v>
+      </c>
       <c r="Q54" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R54" s="17">
-        <v>1320</v>
+        <v>1184</v>
       </c>
       <c r="S54" s="18">
-        <v>41088</v>
-      </c>
-      <c r="T54" s="18" t="s">
-        <v>230</v>
+        <v>38899</v>
+      </c>
+      <c r="T54" s="18">
+        <v>43018</v>
       </c>
       <c r="U54" s="18" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="V54" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
+        <v>539</v>
+      </c>
+      <c r="W54" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="X54" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y54" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z54" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AA54" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB54" s="17">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AC54" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
+      <c r="AD54" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE54" s="20" t="s">
+        <v>538</v>
+      </c>
       <c r="AF54" s="20"/>
       <c r="AG54" s="20"/>
-      <c r="AH54" s="21"/>
+      <c r="AH54" s="21" t="s">
+        <v>563</v>
+      </c>
       <c r="AI54" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C55" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>156</v>
+        <v>581</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G55" s="17">
-        <v>44.408689000000003</v>
+        <v>44.427939000000002</v>
       </c>
       <c r="H55" s="17">
-        <v>-115.179841</v>
+        <v>-115.284171</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>711</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>156</v>
+        <v>581</v>
       </c>
       <c r="M55" s="17" t="s">
         <v>589</v>
@@ -9799,126 +9825,110 @@
       <c r="O55" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="P55" s="22">
-        <v>45.9</v>
-      </c>
+      <c r="P55" s="22"/>
       <c r="Q55" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R55" s="17">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="S55" s="18">
-        <v>43755</v>
+        <v>41088</v>
       </c>
       <c r="T55" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U55" s="18" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="V55" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="W55" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X55" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y55" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z55" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
       <c r="AA55" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="17">
         <v>2</v>
       </c>
-      <c r="AB55" s="17">
-        <v>8</v>
-      </c>
       <c r="AC55" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD55" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE55" s="20" t="s">
-        <v>538</v>
-      </c>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
       <c r="AF55" s="20"/>
       <c r="AG55" s="20"/>
-      <c r="AH55" s="21" t="s">
-        <v>563</v>
-      </c>
+      <c r="AH55" s="21"/>
       <c r="AI55" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C56" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>585</v>
+        <v>156</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G56" s="17">
-        <v>45.295253000000002</v>
+        <v>44.408689000000003</v>
       </c>
       <c r="H56" s="17">
-        <v>-114.358101</v>
+        <v>-115.179841</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>175</v>
+        <v>711</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>585</v>
+        <v>156</v>
       </c>
       <c r="M56" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O56" s="17" t="s">
-        <v>585</v>
+        <v>715</v>
       </c>
       <c r="P56" s="22">
-        <v>76.400000000000006</v>
+        <v>45.9</v>
       </c>
       <c r="Q56" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R56" s="17">
-        <v>1168</v>
+        <v>1322</v>
       </c>
       <c r="S56" s="18">
-        <v>42943</v>
+        <v>43755</v>
       </c>
       <c r="T56" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U56" s="18" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="V56" s="18" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="W56" s="18" t="s">
         <v>535</v>
@@ -9927,7 +9937,7 @@
         <v>535</v>
       </c>
       <c r="Y56" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z56" s="18" t="b">
         <v>1</v>
@@ -9936,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="AB56" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC56" s="18" t="b">
         <v>1</v>
@@ -9948,88 +9958,86 @@
         <v>538</v>
       </c>
       <c r="AF56" s="20"/>
-      <c r="AG56" s="20" t="s">
-        <v>572</v>
-      </c>
+      <c r="AG56" s="20"/>
       <c r="AH56" s="21" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="AI56" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="C57" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>174</v>
+        <v>585</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G57" s="17">
-        <v>45.417558</v>
+        <v>45.295253000000002</v>
       </c>
       <c r="H57" s="17">
-        <v>-113.994089</v>
+        <v>-114.358101</v>
       </c>
       <c r="I57" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>174</v>
+        <v>585</v>
       </c>
       <c r="M57" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="P57" s="22" t="s">
-        <v>230</v>
+        <v>585</v>
+      </c>
+      <c r="P57" s="22">
+        <v>76.400000000000006</v>
       </c>
       <c r="Q57" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R57" s="17">
-        <v>1208</v>
+        <v>1168</v>
       </c>
       <c r="S57" s="18">
-        <v>42326</v>
+        <v>42943</v>
       </c>
       <c r="T57" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U57" s="18" t="s">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="V57" s="18" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="W57" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="X57" s="18" t="s">
         <v>535</v>
       </c>
       <c r="Y57" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z57" s="18" t="b">
         <v>1</v>
@@ -10047,139 +10055,143 @@
         <v>521</v>
       </c>
       <c r="AE57" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF57" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="21"/>
+        <v>538</v>
+      </c>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH57" s="21" t="s">
+        <v>574</v>
+      </c>
       <c r="AI57" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>174</v>
       </c>
       <c r="C58" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G58" s="17">
-        <v>45.246485</v>
+        <v>45.417558</v>
       </c>
       <c r="H58" s="17">
-        <v>-113.893466</v>
+        <v>-113.994089</v>
       </c>
       <c r="I58" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>582</v>
+        <v>174</v>
       </c>
       <c r="M58" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="P58" s="22">
-        <v>3.3</v>
+        <v>174</v>
+      </c>
+      <c r="P58" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q58" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="R58" s="17">
-        <v>1234</v>
+        <v>1208</v>
       </c>
       <c r="S58" s="18">
-        <v>41568</v>
-      </c>
-      <c r="T58" s="18">
-        <v>43160</v>
+        <v>42326</v>
+      </c>
+      <c r="T58" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U58" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V58" s="18" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="W58" s="18" t="s">
         <v>529</v>
       </c>
       <c r="X58" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y58" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z58" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB58" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC58" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD58" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AE58" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF58" s="20"/>
+      <c r="AF58" s="20" t="s">
+        <v>571</v>
+      </c>
       <c r="AG58" s="20"/>
       <c r="AH58" s="21"/>
       <c r="AI58" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>379</v>
       </c>
       <c r="C59" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>582</v>
+        <v>163</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G59" s="17">
-        <v>45.176475000000003</v>
+        <v>45.246485</v>
       </c>
       <c r="H59" s="17">
-        <v>-113.885278</v>
+        <v>-113.893466</v>
       </c>
       <c r="I59" s="17" t="s">
         <v>175</v>
@@ -10200,71 +10212,69 @@
         <v>582</v>
       </c>
       <c r="P59" s="22">
-        <v>93.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q59" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R59" s="17">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="S59" s="18">
-        <v>40026</v>
+        <v>41568</v>
       </c>
       <c r="T59" s="18">
-        <v>42984</v>
+        <v>43160</v>
       </c>
       <c r="U59" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V59" s="18" t="s">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="W59" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="X59" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="Y59" s="18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Z59" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB59" s="17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AC59" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD59" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE59" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF59" s="20" t="s">
-        <v>569</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="AF59" s="20"/>
       <c r="AG59" s="20"/>
       <c r="AH59" s="21"/>
       <c r="AI59" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>384</v>
+        <v>164</v>
       </c>
       <c r="C60" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>661</v>
@@ -10276,10 +10286,10 @@
         <v>204</v>
       </c>
       <c r="G60" s="17">
-        <v>45.115074</v>
+        <v>45.176475000000003</v>
       </c>
       <c r="H60" s="17">
-        <v>-113.774021</v>
+        <v>-113.885278</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>175</v>
@@ -10299,35 +10309,35 @@
       <c r="O60" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P60" s="22" t="s">
-        <v>230</v>
+      <c r="P60" s="22">
+        <v>93.1</v>
       </c>
       <c r="Q60" s="17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="R60" s="17">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="S60" s="18">
-        <v>43682</v>
-      </c>
-      <c r="T60" s="18" t="s">
-        <v>230</v>
+        <v>40026</v>
+      </c>
+      <c r="T60" s="18">
+        <v>42984</v>
       </c>
       <c r="U60" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V60" s="18" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="W60" s="18" t="s">
         <v>535</v>
       </c>
       <c r="X60" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y60" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z60" s="18" t="b">
         <v>1</v>
@@ -10336,16 +10346,16 @@
         <v>2</v>
       </c>
       <c r="AB60" s="17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC60" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD60" s="20" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AE60" s="20" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="AF60" s="20" t="s">
         <v>569</v>
@@ -10353,15 +10363,15 @@
       <c r="AG60" s="20"/>
       <c r="AH60" s="21"/>
       <c r="AI60" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C61" s="18" t="b">
         <v>0</v>
@@ -10376,10 +10386,10 @@
         <v>204</v>
       </c>
       <c r="G61" s="17">
-        <v>45.113169999999997</v>
+        <v>45.115074</v>
       </c>
       <c r="H61" s="17">
-        <v>-113.7556</v>
+        <v>-113.774021</v>
       </c>
       <c r="I61" s="17" t="s">
         <v>175</v>
@@ -10399,7 +10409,9 @@
       <c r="O61" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P61" s="22"/>
+      <c r="P61" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="Q61" s="17" t="s">
         <v>385</v>
       </c>
@@ -10407,7 +10419,7 @@
         <v>1257</v>
       </c>
       <c r="S61" s="18">
-        <v>43814</v>
+        <v>43682</v>
       </c>
       <c r="T61" s="18" t="s">
         <v>230</v>
@@ -10418,36 +10430,48 @@
       <c r="V61" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
+      <c r="W61" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="X61" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y61" s="18" t="s">
+        <v>533</v>
+      </c>
       <c r="Z61" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA61" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB61" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC61" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="20"/>
-      <c r="AE61" s="20"/>
-      <c r="AF61" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD61" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE61" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF61" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG61" s="20"/>
       <c r="AH61" s="21"/>
       <c r="AI61" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C62" s="18" t="b">
         <v>0</v>
@@ -10462,10 +10486,10 @@
         <v>204</v>
       </c>
       <c r="G62" s="17">
-        <v>45.111257000000002</v>
+        <v>45.113169999999997</v>
       </c>
       <c r="H62" s="17">
-        <v>-113.74641800000001</v>
+        <v>-113.7556</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>175</v>
@@ -10487,16 +10511,16 @@
       </c>
       <c r="P62" s="22"/>
       <c r="Q62" s="17" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="R62" s="17">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="S62" s="18">
-        <v>42915</v>
-      </c>
-      <c r="T62" s="18">
-        <v>43544</v>
+        <v>43814</v>
+      </c>
+      <c r="T62" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U62" s="18" t="s">
         <v>528</v>
@@ -10525,15 +10549,15 @@
       <c r="AG62" s="20"/>
       <c r="AH62" s="21"/>
       <c r="AI62" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C63" s="18" t="b">
         <v>0</v>
@@ -10548,10 +10572,10 @@
         <v>204</v>
       </c>
       <c r="G63" s="17">
-        <v>45.112769999999998</v>
+        <v>45.111257000000002</v>
       </c>
       <c r="H63" s="17">
-        <v>-113.74987</v>
+        <v>-113.74641800000001</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>175</v>
@@ -10579,10 +10603,10 @@
         <v>1258</v>
       </c>
       <c r="S63" s="18">
-        <v>43739</v>
-      </c>
-      <c r="T63" s="18" t="s">
-        <v>230</v>
+        <v>42915</v>
+      </c>
+      <c r="T63" s="18">
+        <v>43544</v>
       </c>
       <c r="U63" s="18" t="s">
         <v>528</v>
@@ -10611,33 +10635,33 @@
       <c r="AG63" s="20"/>
       <c r="AH63" s="21"/>
       <c r="AI63" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="B64" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C64" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>166</v>
+        <v>582</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G64" s="17">
-        <v>45.112189000000001</v>
+        <v>45.112769999999998</v>
       </c>
       <c r="H64" s="17">
-        <v>-113.746897</v>
+        <v>-113.74987</v>
       </c>
       <c r="I64" s="17" t="s">
         <v>175</v>
@@ -10657,87 +10681,73 @@
       <c r="O64" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P64" s="22">
-        <v>1.7</v>
-      </c>
+      <c r="P64" s="22"/>
       <c r="Q64" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="R64" s="17">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="S64" s="18">
-        <v>40822</v>
-      </c>
-      <c r="T64" s="18">
-        <v>43236</v>
+        <v>43739</v>
+      </c>
+      <c r="T64" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U64" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V64" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="W64" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X64" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y64" s="18" t="s">
-        <v>540</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
+      <c r="Y64" s="18"/>
       <c r="Z64" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA64" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB64" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE64" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF64" s="20" t="s">
-        <v>569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
       <c r="AG64" s="20"/>
       <c r="AH64" s="21"/>
       <c r="AI64" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C65" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>582</v>
+        <v>166</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G65" s="17">
-        <v>45.109456999999999</v>
+        <v>45.112189000000001</v>
       </c>
       <c r="H65" s="17">
-        <v>-113.742696</v>
+        <v>-113.746897</v>
       </c>
       <c r="I65" s="17" t="s">
         <v>175</v>
@@ -10757,53 +10767,69 @@
       <c r="O65" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P65" s="22"/>
+      <c r="P65" s="22">
+        <v>1.7</v>
+      </c>
       <c r="Q65" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R65" s="17">
         <v>1259</v>
       </c>
       <c r="S65" s="18">
-        <v>42915</v>
+        <v>40822</v>
       </c>
       <c r="T65" s="18">
-        <v>43630</v>
+        <v>43236</v>
       </c>
       <c r="U65" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V65" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="18"/>
+        <v>570</v>
+      </c>
+      <c r="W65" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="X65" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y65" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z65" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AA65" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB65" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC65" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="20"/>
-      <c r="AE65" s="20"/>
-      <c r="AF65" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD65" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE65" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF65" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG65" s="20"/>
       <c r="AH65" s="21"/>
       <c r="AI65" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
-        <v>105</v>
+        <v>400</v>
       </c>
       <c r="B66" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C66" s="18" t="b">
         <v>0</v>
@@ -10818,10 +10844,10 @@
         <v>204</v>
       </c>
       <c r="G66" s="17">
-        <v>45.100087000000002</v>
+        <v>45.109456999999999</v>
       </c>
       <c r="H66" s="17">
-        <v>-113.72604200000001</v>
+        <v>-113.742696</v>
       </c>
       <c r="I66" s="17" t="s">
         <v>175</v>
@@ -10841,20 +10867,18 @@
       <c r="O66" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P66" s="22" t="s">
-        <v>230</v>
-      </c>
+      <c r="P66" s="22"/>
       <c r="Q66" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="R66" s="17">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="S66" s="18">
-        <v>43664</v>
-      </c>
-      <c r="T66" s="18" t="s">
-        <v>230</v>
+        <v>42915</v>
+      </c>
+      <c r="T66" s="18">
+        <v>43630</v>
       </c>
       <c r="U66" s="18" t="s">
         <v>528</v>
@@ -10862,48 +10886,34 @@
       <c r="V66" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="W66" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X66" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y66" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z66" s="18" t="b">
-        <v>1</v>
-      </c>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="18"/>
       <c r="AA66" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB66" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC66" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE66" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF66" s="20" t="s">
-        <v>569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="20"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
       <c r="AG66" s="20"/>
       <c r="AH66" s="21"/>
       <c r="AI66" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C67" s="18" t="b">
         <v>0</v>
@@ -10912,16 +10922,16 @@
         <v>661</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G67" s="17">
-        <v>45.097937999999999</v>
+        <v>45.100087000000002</v>
       </c>
       <c r="H67" s="17">
-        <v>-113.72049699999999</v>
+        <v>-113.72604200000001</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>175</v>
@@ -10941,29 +10951,29 @@
       <c r="O67" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P67" s="22">
-        <v>1.1000000000000001</v>
+      <c r="P67" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q67" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="R67" s="17">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="S67" s="18">
-        <v>41556</v>
-      </c>
-      <c r="T67" s="18">
-        <v>43216</v>
+        <v>43664</v>
+      </c>
+      <c r="T67" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U67" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V67" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="W67" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="X67" s="18" t="s">
         <v>529</v>
@@ -10972,13 +10982,13 @@
         <v>533</v>
       </c>
       <c r="Z67" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB67" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC67" s="18" t="b">
         <v>1</v>
@@ -10989,19 +10999,21 @@
       <c r="AE67" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF67" s="20"/>
+      <c r="AF67" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG67" s="20"/>
       <c r="AH67" s="21"/>
       <c r="AI67" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C68" s="18" t="b">
         <v>0</v>
@@ -11010,16 +11022,16 @@
         <v>661</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>167</v>
+        <v>586</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G68" s="17">
-        <v>45.026792</v>
+        <v>45.097937999999999</v>
       </c>
       <c r="H68" s="17">
-        <v>-113.654847</v>
+        <v>-113.72049699999999</v>
       </c>
       <c r="I68" s="17" t="s">
         <v>175</v>
@@ -11043,22 +11055,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q68" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="R68" s="17">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="S68" s="18">
-        <v>40330</v>
+        <v>41556</v>
       </c>
       <c r="T68" s="18">
-        <v>42353</v>
+        <v>43216</v>
       </c>
       <c r="U68" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V68" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="W68" s="18" t="s">
         <v>529</v>
@@ -11070,13 +11082,13 @@
         <v>533</v>
       </c>
       <c r="Z68" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB68" s="17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC68" s="18" t="b">
         <v>1</v>
@@ -11087,21 +11099,19 @@
       <c r="AE68" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF68" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="AF68" s="20"/>
       <c r="AG68" s="20"/>
       <c r="AH68" s="21"/>
       <c r="AI68" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C69" s="18" t="b">
         <v>0</v>
@@ -11110,16 +11120,16 @@
         <v>661</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G69" s="17">
-        <v>44.956738999999999</v>
+        <v>45.026792</v>
       </c>
       <c r="H69" s="17">
-        <v>-113.639543</v>
+        <v>-113.654847</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>175</v>
@@ -11139,26 +11149,26 @@
       <c r="O69" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P69" s="22" t="s">
-        <v>230</v>
+      <c r="P69" s="22">
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R69" s="17">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="S69" s="18">
-        <v>41568</v>
+        <v>40330</v>
       </c>
       <c r="T69" s="18">
-        <v>42680</v>
+        <v>42353</v>
       </c>
       <c r="U69" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V69" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="W69" s="18" t="s">
         <v>529</v>
@@ -11170,13 +11180,13 @@
         <v>533</v>
       </c>
       <c r="Z69" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB69" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC69" s="18" t="b">
         <v>1</v>
@@ -11187,19 +11197,21 @@
       <c r="AE69" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF69" s="20"/>
+      <c r="AF69" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG69" s="20"/>
       <c r="AH69" s="21"/>
       <c r="AI69" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
-        <v>416</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C70" s="18" t="b">
         <v>0</v>
@@ -11208,16 +11220,16 @@
         <v>661</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>582</v>
+        <v>168</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G70" s="17">
-        <v>44.896909999999998</v>
+        <v>44.956738999999999</v>
       </c>
       <c r="H70" s="17">
-        <v>-113.62475000000001</v>
+        <v>-113.639543</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>175</v>
@@ -11237,73 +11249,85 @@
       <c r="O70" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P70" s="22"/>
+      <c r="P70" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="Q70" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="R70" s="17">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="S70" s="18">
-        <v>44768</v>
-      </c>
-      <c r="T70" s="18" t="s">
-        <v>230</v>
+        <v>41568</v>
+      </c>
+      <c r="T70" s="18">
+        <v>42680</v>
       </c>
       <c r="U70" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V70" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
+        <v>551</v>
+      </c>
+      <c r="W70" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="X70" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y70" s="18" t="s">
+        <v>533</v>
+      </c>
       <c r="Z70" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB70" s="17">
         <v>3</v>
       </c>
       <c r="AC70" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="20"/>
-      <c r="AE70" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD70" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE70" s="20" t="s">
+        <v>522</v>
+      </c>
       <c r="AF70" s="20"/>
       <c r="AG70" s="20"/>
       <c r="AH70" s="21"/>
       <c r="AI70" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
-        <v>103</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C71" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>165</v>
+        <v>582</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G71" s="17">
-        <v>44.861654000000001</v>
+        <v>44.896909999999998</v>
       </c>
       <c r="H71" s="17">
-        <v>-113.63193699999999</v>
+        <v>-113.62475000000001</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>175</v>
@@ -11323,69 +11347,55 @@
       <c r="O71" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P71" s="22">
-        <v>10.199999999999999</v>
-      </c>
+      <c r="P71" s="22"/>
       <c r="Q71" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="R71" s="17">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="S71" s="18">
-        <v>40026</v>
-      </c>
-      <c r="T71" s="18">
-        <v>43369</v>
+        <v>44768</v>
+      </c>
+      <c r="T71" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U71" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V71" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="W71" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X71" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y71" s="18" t="s">
-        <v>540</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W71" s="18"/>
+      <c r="X71" s="18"/>
+      <c r="Y71" s="18"/>
       <c r="Z71" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA71" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB71" s="17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC71" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD71" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE71" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF71" s="20" t="s">
-        <v>569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
       <c r="AG71" s="20"/>
       <c r="AH71" s="21"/>
       <c r="AI71" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C72" s="18" t="b">
         <v>1</v>
@@ -11394,16 +11404,16 @@
         <v>661</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>582</v>
+        <v>165</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G72" s="17">
-        <v>44.865960000000001</v>
+        <v>44.861654000000001</v>
       </c>
       <c r="H72" s="17">
-        <v>-113.62472099999999</v>
+        <v>-113.63193699999999</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>175</v>
@@ -11424,10 +11434,10 @@
         <v>582</v>
       </c>
       <c r="P72" s="22">
-        <v>56.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="R72" s="17">
         <v>1291</v>
@@ -11436,7 +11446,7 @@
         <v>40026</v>
       </c>
       <c r="T72" s="18">
-        <v>40800</v>
+        <v>43369</v>
       </c>
       <c r="U72" s="18" t="s">
         <v>528</v>
@@ -11460,7 +11470,7 @@
         <v>2</v>
       </c>
       <c r="AB72" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC72" s="18" t="b">
         <v>1</v>
@@ -11477,15 +11487,15 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="21"/>
       <c r="AI72" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C73" s="18" t="b">
         <v>1</v>
@@ -11494,16 +11504,16 @@
         <v>661</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G73" s="17">
-        <v>44.780552</v>
+        <v>44.865960000000001</v>
       </c>
       <c r="H73" s="17">
-        <v>-113.545027</v>
+        <v>-113.62472099999999</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>175</v>
@@ -11523,20 +11533,20 @@
       <c r="O73" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P73" s="22" t="s">
-        <v>230</v>
+      <c r="P73" s="22">
+        <v>56.8</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="R73" s="17">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="S73" s="18">
-        <v>40708</v>
+        <v>40026</v>
       </c>
       <c r="T73" s="18">
-        <v>43369</v>
+        <v>40800</v>
       </c>
       <c r="U73" s="18" t="s">
         <v>528</v>
@@ -11560,7 +11570,7 @@
         <v>2</v>
       </c>
       <c r="AB73" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC73" s="18" t="b">
         <v>1</v>
@@ -11577,33 +11587,33 @@
       <c r="AG73" s="20"/>
       <c r="AH73" s="21"/>
       <c r="AI73" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C74" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>429</v>
+        <v>587</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G74" s="17">
-        <v>44.738218000000003</v>
+        <v>44.780552</v>
       </c>
       <c r="H74" s="17">
-        <v>-113.462458</v>
+        <v>-113.545027</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>175</v>
@@ -11623,44 +11633,44 @@
       <c r="O74" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P74" s="22">
-        <v>4</v>
+      <c r="P74" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q74" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="R74" s="17">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="S74" s="18">
-        <v>42191</v>
+        <v>40708</v>
       </c>
       <c r="T74" s="18">
-        <v>43180</v>
+        <v>43369</v>
       </c>
       <c r="U74" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V74" s="18" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="W74" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="X74" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y74" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z74" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA74" s="17">
         <v>2</v>
       </c>
       <c r="AB74" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC74" s="18" t="b">
         <v>1</v>
@@ -11671,19 +11681,21 @@
       <c r="AE74" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF74" s="20"/>
+      <c r="AF74" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG74" s="20"/>
       <c r="AH74" s="21"/>
       <c r="AI74" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="C75" s="18" t="b">
         <v>0</v>
@@ -11692,16 +11704,16 @@
         <v>661</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>169</v>
+        <v>429</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G75" s="17">
-        <v>44.727348999999997</v>
+        <v>44.738218000000003</v>
       </c>
       <c r="H75" s="17">
-        <v>-113.43321400000001</v>
+        <v>-113.462458</v>
       </c>
       <c r="I75" s="17" t="s">
         <v>175</v>
@@ -11722,25 +11734,25 @@
         <v>582</v>
       </c>
       <c r="P75" s="22">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="Q75" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="R75" s="17">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="S75" s="18">
-        <v>41730</v>
+        <v>42191</v>
       </c>
       <c r="T75" s="18">
-        <v>44141</v>
+        <v>43180</v>
       </c>
       <c r="U75" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V75" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="W75" s="18" t="s">
         <v>529</v>
@@ -11752,13 +11764,13 @@
         <v>533</v>
       </c>
       <c r="Z75" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB75" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC75" s="18" t="b">
         <v>1</v>
@@ -11769,21 +11781,19 @@
       <c r="AE75" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF75" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
       <c r="AH75" s="21"/>
       <c r="AI75" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>434</v>
+        <v>169</v>
       </c>
       <c r="C76" s="18" t="b">
         <v>0</v>
@@ -11792,16 +11802,16 @@
         <v>661</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G76" s="17">
-        <v>44.747073999999998</v>
+        <v>44.727348999999997</v>
       </c>
       <c r="H76" s="17">
-        <v>-113.47464100000001</v>
+        <v>-113.43321400000001</v>
       </c>
       <c r="I76" s="17" t="s">
         <v>175</v>
@@ -11821,26 +11831,26 @@
       <c r="O76" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P76" s="22" t="s">
-        <v>230</v>
+      <c r="P76" s="22">
+        <v>0.2</v>
       </c>
       <c r="Q76" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="R76" s="17">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="S76" s="18">
-        <v>41629</v>
+        <v>41730</v>
       </c>
       <c r="T76" s="18">
-        <v>43201</v>
+        <v>44141</v>
       </c>
       <c r="U76" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V76" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="W76" s="18" t="s">
         <v>529</v>
@@ -11852,13 +11862,13 @@
         <v>533</v>
       </c>
       <c r="Z76" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA76" s="17">
         <v>3</v>
       </c>
       <c r="AB76" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC76" s="18" t="b">
         <v>1</v>
@@ -11869,19 +11879,21 @@
       <c r="AE76" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF76" s="20"/>
+      <c r="AF76" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG76" s="20"/>
       <c r="AH76" s="21"/>
       <c r="AI76" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="C77" s="18" t="b">
         <v>0</v>
@@ -11890,16 +11902,16 @@
         <v>661</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G77" s="17">
-        <v>44.688110000000002</v>
+        <v>44.747073999999998</v>
       </c>
       <c r="H77" s="17">
-        <v>-113.37041000000001</v>
+        <v>-113.47464100000001</v>
       </c>
       <c r="I77" s="17" t="s">
         <v>175</v>
@@ -11919,56 +11931,70 @@
       <c r="O77" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P77" s="22"/>
+      <c r="P77" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="Q77" s="17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="R77" s="17">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="S77" s="18">
-        <v>40198</v>
+        <v>41629</v>
       </c>
       <c r="T77" s="18">
-        <v>41562</v>
+        <v>43201</v>
       </c>
       <c r="U77" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V77" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="W77" s="18"/>
-      <c r="X77" s="18"/>
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="18"/>
+        <v>551</v>
+      </c>
+      <c r="W77" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="X77" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y77" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z77" s="18" t="b">
+        <v>0</v>
+      </c>
       <c r="AA77" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB77" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC77" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD77" s="20"/>
-      <c r="AE77" s="20"/>
+      <c r="AD77" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE77" s="20" t="s">
+        <v>522</v>
+      </c>
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
       <c r="AH77" s="21"/>
       <c r="AI77" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
-        <v>114</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s">
-        <v>440</v>
+        <v>171</v>
       </c>
       <c r="C78" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>661</v>
@@ -11980,10 +12006,10 @@
         <v>204</v>
       </c>
       <c r="G78" s="17">
-        <v>44.697567999999997</v>
+        <v>44.688110000000002</v>
       </c>
       <c r="H78" s="17">
-        <v>-113.374118</v>
+        <v>-113.37041000000001</v>
       </c>
       <c r="I78" s="17" t="s">
         <v>175</v>
@@ -12003,9 +12029,7 @@
       <c r="O78" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P78" s="22">
-        <v>7.6</v>
-      </c>
+      <c r="P78" s="22"/>
       <c r="Q78" s="17" t="s">
         <v>438</v>
       </c>
@@ -12013,62 +12037,48 @@
         <v>1331</v>
       </c>
       <c r="S78" s="18">
-        <v>41563</v>
+        <v>40198</v>
       </c>
       <c r="T78" s="18">
-        <v>43779</v>
+        <v>41562</v>
       </c>
       <c r="U78" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V78" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="W78" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="X78" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y78" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z78" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="18"/>
       <c r="AA78" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB78" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC78" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD78" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE78" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="AF78" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="AD78" s="20"/>
+      <c r="AE78" s="20"/>
+      <c r="AF78" s="20"/>
       <c r="AG78" s="20"/>
       <c r="AH78" s="21"/>
       <c r="AI78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C79" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>661</v>
@@ -12080,10 +12090,10 @@
         <v>204</v>
       </c>
       <c r="G79" s="17">
-        <v>44.660443999999998</v>
+        <v>44.697567999999997</v>
       </c>
       <c r="H79" s="17">
-        <v>-113.377624</v>
+        <v>-113.374118</v>
       </c>
       <c r="I79" s="17" t="s">
         <v>175</v>
@@ -12103,44 +12113,44 @@
       <c r="O79" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P79" s="22" t="s">
-        <v>230</v>
+      <c r="P79" s="22">
+        <v>7.6</v>
       </c>
       <c r="Q79" s="17" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="R79" s="17">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="S79" s="18">
-        <v>42082</v>
+        <v>41563</v>
       </c>
       <c r="T79" s="18">
-        <v>43238</v>
+        <v>43779</v>
       </c>
       <c r="U79" s="18" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="V79" s="18" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="W79" s="18" t="s">
         <v>529</v>
       </c>
       <c r="X79" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y79" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z79" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79" s="17">
         <v>3</v>
       </c>
       <c r="AB79" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC79" s="18" t="b">
         <v>1</v>
@@ -12151,19 +12161,21 @@
       <c r="AE79" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF79" s="20"/>
+      <c r="AF79" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG79" s="20"/>
       <c r="AH79" s="21"/>
       <c r="AI79" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C80" s="18" t="b">
         <v>0</v>
@@ -12178,10 +12190,10 @@
         <v>204</v>
       </c>
       <c r="G80" s="17">
-        <v>44.613860000000003</v>
+        <v>44.660443999999998</v>
       </c>
       <c r="H80" s="17">
-        <v>-113.397036</v>
+        <v>-113.377624</v>
       </c>
       <c r="I80" s="17" t="s">
         <v>175</v>
@@ -12205,16 +12217,16 @@
         <v>230</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="R80" s="17">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="S80" s="18">
-        <v>42234</v>
+        <v>42082</v>
       </c>
       <c r="T80" s="18">
-        <v>43313</v>
+        <v>43238</v>
       </c>
       <c r="U80" s="18" t="s">
         <v>551</v>
@@ -12235,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="AA80" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB80" s="17">
         <v>4</v>
@@ -12253,33 +12265,33 @@
       <c r="AG80" s="20"/>
       <c r="AH80" s="21"/>
       <c r="AI80" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C81" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G81" s="17">
-        <v>44.691090000000003</v>
+        <v>44.613860000000003</v>
       </c>
       <c r="H81" s="17">
-        <v>-113.365281</v>
+        <v>-113.397036</v>
       </c>
       <c r="I81" s="17" t="s">
         <v>175</v>
@@ -12299,38 +12311,38 @@
       <c r="O81" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P81" s="22">
-        <v>4.3</v>
+      <c r="P81" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q81" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="R81" s="17">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="S81" s="18">
-        <v>40483</v>
+        <v>42234</v>
       </c>
       <c r="T81" s="18">
-        <v>43056</v>
+        <v>43313</v>
       </c>
       <c r="U81" s="18" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="V81" s="18" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="W81" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="X81" s="18" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="Y81" s="18" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Z81" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="17">
         <v>2</v>
@@ -12347,39 +12359,37 @@
       <c r="AE81" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF81" s="20" t="s">
-        <v>569</v>
-      </c>
+      <c r="AF81" s="20"/>
       <c r="AG81" s="20"/>
       <c r="AH81" s="21"/>
       <c r="AI81" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C82" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>588</v>
+        <v>172</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G82" s="17">
-        <v>44.682794999999999</v>
+        <v>44.691090000000003</v>
       </c>
       <c r="H82" s="17">
-        <v>-113.35366</v>
+        <v>-113.365281</v>
       </c>
       <c r="I82" s="17" t="s">
         <v>175</v>
@@ -12400,43 +12410,43 @@
         <v>582</v>
       </c>
       <c r="P82" s="22">
-        <v>12.6</v>
+        <v>4.3</v>
       </c>
       <c r="Q82" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="R82" s="17">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="S82" s="18">
-        <v>41760</v>
+        <v>40483</v>
       </c>
       <c r="T82" s="18">
-        <v>43600</v>
+        <v>43056</v>
       </c>
       <c r="U82" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V82" s="18" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="X82" s="18" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Y82" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z82" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA82" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB82" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC82" s="18" t="b">
         <v>1</v>
@@ -12453,15 +12463,15 @@
       <c r="AG82" s="20"/>
       <c r="AH82" s="21"/>
       <c r="AI82" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
-        <v>454</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C83" s="18" t="b">
         <v>0</v>
@@ -12470,16 +12480,16 @@
         <v>661</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G83" s="17">
-        <v>44.668593999999999</v>
+        <v>44.682794999999999</v>
       </c>
       <c r="H83" s="17">
-        <v>-113.31155</v>
+        <v>-113.35366</v>
       </c>
       <c r="I83" s="17" t="s">
         <v>175</v>
@@ -12499,18 +12509,20 @@
       <c r="O83" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="P83" s="22"/>
+      <c r="P83" s="22">
+        <v>12.6</v>
+      </c>
       <c r="Q83" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="R83" s="17">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="S83" s="18">
-        <v>41559</v>
+        <v>41760</v>
       </c>
       <c r="T83" s="18">
-        <v>42350</v>
+        <v>43600</v>
       </c>
       <c r="U83" s="18" t="s">
         <v>528</v>
@@ -12518,106 +12530,110 @@
       <c r="V83" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="18"/>
+      <c r="W83" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="X83" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y83" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z83" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AA83" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB83" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC83" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD83" s="20"/>
-      <c r="AE83" s="20"/>
-      <c r="AF83" s="20"/>
+      <c r="AD83" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE83" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF83" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="AG83" s="20"/>
       <c r="AH83" s="21"/>
       <c r="AI83" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
-        <v>122</v>
+        <v>454</v>
       </c>
       <c r="B84" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C84" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G84" s="17">
-        <v>45.028530000000003</v>
+        <v>44.668593999999999</v>
       </c>
       <c r="H84" s="17">
-        <v>-113.916319</v>
+        <v>-113.31155</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>721</v>
+        <v>582</v>
       </c>
       <c r="M84" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O84" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="P84" s="22" t="s">
-        <v>230</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="P84" s="22"/>
       <c r="Q84" s="17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="R84" s="17">
-        <v>1262</v>
+        <v>1338</v>
       </c>
       <c r="S84" s="18">
-        <v>41164</v>
-      </c>
-      <c r="T84" s="18" t="s">
-        <v>230</v>
+        <v>41559</v>
+      </c>
+      <c r="T84" s="18">
+        <v>42350</v>
       </c>
       <c r="U84" s="18" t="s">
         <v>528</v>
       </c>
       <c r="V84" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="W84" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X84" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y84" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z84" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
+      <c r="Y84" s="18"/>
+      <c r="Z84" s="18"/>
       <c r="AA84" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB84" s="17">
         <v>6</v>
@@ -12625,25 +12641,21 @@
       <c r="AC84" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD84" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE84" s="20" t="s">
-        <v>522</v>
-      </c>
+      <c r="AD84" s="20"/>
+      <c r="AE84" s="20"/>
       <c r="AF84" s="20"/>
       <c r="AG84" s="20"/>
       <c r="AH84" s="21"/>
       <c r="AI84" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C85" s="18" t="b">
         <v>1</v>
@@ -12658,10 +12670,10 @@
         <v>204</v>
       </c>
       <c r="G85" s="17">
-        <v>44.889763000000002</v>
+        <v>45.028530000000003</v>
       </c>
       <c r="H85" s="17">
-        <v>-113.964145</v>
+        <v>-113.916319</v>
       </c>
       <c r="I85" s="17" t="s">
         <v>175</v>
@@ -12681,17 +12693,17 @@
       <c r="O85" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="P85" s="22">
-        <v>93.7</v>
+      <c r="P85" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q85" s="17" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R85" s="17">
-        <v>1285</v>
+        <v>1262</v>
       </c>
       <c r="S85" s="18">
-        <v>41151</v>
+        <v>41164</v>
       </c>
       <c r="T85" s="18" t="s">
         <v>230</v>
@@ -12731,121 +12743,117 @@
       </c>
       <c r="AF85" s="20"/>
       <c r="AG85" s="20"/>
-      <c r="AH85" s="21" t="s">
-        <v>575</v>
-      </c>
+      <c r="AH85" s="21"/>
       <c r="AI85" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C86" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>176</v>
+        <v>589</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G86" s="17">
-        <v>44.287737</v>
+        <v>44.889763000000002</v>
       </c>
       <c r="H86" s="17">
-        <v>-114.72045300000001</v>
+        <v>-113.964145</v>
       </c>
       <c r="I86" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M86" s="17" t="s">
         <v>589</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O86" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="P86" s="22" t="s">
-        <v>230</v>
+        <v>722</v>
+      </c>
+      <c r="P86" s="22">
+        <v>93.7</v>
       </c>
       <c r="Q86" s="17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="R86" s="17">
-        <v>1419</v>
+        <v>1285</v>
       </c>
       <c r="S86" s="18">
-        <v>40997</v>
+        <v>41151</v>
       </c>
       <c r="T86" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U86" s="18" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="V86" s="18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="W86" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="X86" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="Y86" s="18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Z86" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA86" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB86" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC86" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD86" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE86" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="AF86" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG86" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="AH86" s="21"/>
+      <c r="AF86" s="20"/>
+      <c r="AG86" s="20"/>
+      <c r="AH86" s="21" t="s">
+        <v>575</v>
+      </c>
       <c r="AI86" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
-        <v>467</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C87" s="18" t="b">
         <v>0</v>
@@ -12854,16 +12862,16 @@
         <v>661</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>583</v>
+        <v>176</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G87" s="17">
-        <v>44.339058999999999</v>
+        <v>44.287737</v>
       </c>
       <c r="H87" s="17">
-        <v>-114.72163999999999</v>
+        <v>-114.72045300000001</v>
       </c>
       <c r="I87" s="17" t="s">
         <v>175</v>
@@ -12883,18 +12891,20 @@
       <c r="O87" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="P87" s="22"/>
+      <c r="P87" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="Q87" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="R87" s="17">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="S87" s="18">
-        <v>42370</v>
-      </c>
-      <c r="T87" s="18">
-        <v>43424</v>
+        <v>40997</v>
+      </c>
+      <c r="T87" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="U87" s="18" t="s">
         <v>573</v>
@@ -12902,10 +12912,18 @@
       <c r="V87" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="18"/>
+      <c r="W87" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="X87" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y87" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z87" s="18" t="b">
+        <v>1</v>
+      </c>
       <c r="AA87" s="17">
         <v>2</v>
       </c>
@@ -12913,50 +12931,58 @@
         <v>4</v>
       </c>
       <c r="AC87" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="20"/>
-      <c r="AE87" s="20"/>
-      <c r="AF87" s="20"/>
-      <c r="AG87" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD87" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE87" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF87" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG87" s="20" t="s">
+        <v>572</v>
+      </c>
       <c r="AH87" s="21"/>
       <c r="AI87" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
-        <v>125</v>
+        <v>467</v>
       </c>
       <c r="B88" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C88" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>177</v>
+        <v>583</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G88" s="17">
-        <v>44.221899999999998</v>
+        <v>44.339058999999999</v>
       </c>
       <c r="H88" s="17">
-        <v>-114.93146</v>
+        <v>-114.72163999999999</v>
       </c>
       <c r="I88" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>177</v>
+        <v>724</v>
       </c>
       <c r="M88" s="17" t="s">
         <v>589</v>
@@ -12967,70 +12993,56 @@
       <c r="O88" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="P88" s="22">
-        <v>16.3</v>
-      </c>
+      <c r="P88" s="22"/>
       <c r="Q88" s="17" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="R88" s="17">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="S88" s="18">
-        <v>37447</v>
+        <v>42370</v>
       </c>
       <c r="T88" s="18">
-        <v>41284</v>
+        <v>43424</v>
       </c>
       <c r="U88" s="18" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="V88" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="W88" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X88" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y88" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z88" s="18" t="b">
-        <v>1</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="18"/>
       <c r="AA88" s="17">
         <v>2</v>
       </c>
       <c r="AB88" s="17">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AC88" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD88" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE88" s="20" t="s">
-        <v>522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="20"/>
       <c r="AF88" s="20"/>
       <c r="AG88" s="20"/>
       <c r="AH88" s="21"/>
       <c r="AI88" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C89" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>661</v>
@@ -13042,10 +13054,10 @@
         <v>204</v>
       </c>
       <c r="G89" s="17">
-        <v>44.218671999999998</v>
+        <v>44.221899999999998</v>
       </c>
       <c r="H89" s="17">
-        <v>-114.94215</v>
+        <v>-114.93146</v>
       </c>
       <c r="I89" s="17" t="s">
         <v>175</v>
@@ -13069,16 +13081,16 @@
         <v>16.3</v>
       </c>
       <c r="Q89" s="17" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="R89" s="17">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="S89" s="18">
         <v>37447</v>
       </c>
       <c r="T89" s="18">
-        <v>44417</v>
+        <v>41284</v>
       </c>
       <c r="U89" s="18" t="s">
         <v>577</v>
@@ -13093,22 +13105,22 @@
         <v>535</v>
       </c>
       <c r="Y89" s="18" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="Z89" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA89" s="17">
         <v>2</v>
       </c>
       <c r="AB89" s="17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC89" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD89" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AE89" s="20" t="s">
         <v>522</v>
@@ -13117,15 +13129,15 @@
       <c r="AG89" s="20"/>
       <c r="AH89" s="21"/>
       <c r="AI89" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>474</v>
       </c>
       <c r="C90" s="18" t="b">
         <v>0</v>
@@ -13134,25 +13146,25 @@
         <v>661</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F90" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G90" s="17">
-        <v>44.164726999999999</v>
+        <v>44.218671999999998</v>
       </c>
       <c r="H90" s="17">
-        <v>-114.90504300000001</v>
+        <v>-114.94215</v>
       </c>
       <c r="I90" s="17" t="s">
         <v>175</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>728</v>
+        <v>177</v>
       </c>
       <c r="M90" s="17" t="s">
         <v>589</v>
@@ -13164,25 +13176,25 @@
         <v>725</v>
       </c>
       <c r="P90" s="22">
-        <v>1.9</v>
+        <v>16.3</v>
       </c>
       <c r="Q90" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="R90" s="17">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="S90" s="18">
-        <v>43191</v>
-      </c>
-      <c r="T90" s="18" t="s">
-        <v>230</v>
+        <v>37447</v>
+      </c>
+      <c r="T90" s="18">
+        <v>44417</v>
       </c>
       <c r="U90" s="18" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="V90" s="18" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="W90" s="18" t="s">
         <v>535</v>
@@ -13191,19 +13203,19 @@
         <v>535</v>
       </c>
       <c r="Y90" s="18" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="Z90" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA90" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB90" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC90" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD90" s="20" t="s">
         <v>527</v>
@@ -13212,77 +13224,75 @@
         <v>522</v>
       </c>
       <c r="AF90" s="20"/>
-      <c r="AG90" s="20" t="s">
-        <v>578</v>
-      </c>
+      <c r="AG90" s="20"/>
       <c r="AH90" s="21"/>
       <c r="AI90" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>479</v>
+        <v>178</v>
       </c>
       <c r="C91" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G91" s="17">
-        <v>45.767740000000003</v>
+        <v>44.164726999999999</v>
       </c>
       <c r="H91" s="17">
-        <v>-116.74403700000001</v>
+        <v>-114.90504300000001</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>695</v>
+        <v>175</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="K91" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M91" s="17" t="s">
-        <v>150</v>
+        <v>589</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="O91" s="17" t="s">
-        <v>150</v>
+        <v>725</v>
       </c>
       <c r="P91" s="22">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q91" s="17" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="R91" s="17">
-        <v>837</v>
+        <v>1441</v>
       </c>
       <c r="S91" s="18">
-        <v>40544</v>
+        <v>43191</v>
       </c>
       <c r="T91" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U91" s="18" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="V91" s="18" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="W91" s="18" t="s">
         <v>535</v>
@@ -13291,19 +13301,19 @@
         <v>535</v>
       </c>
       <c r="Y91" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z91" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA91" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB91" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC91" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD91" s="20" t="s">
         <v>527</v>
@@ -13313,19 +13323,19 @@
       </c>
       <c r="AF91" s="20"/>
       <c r="AG91" s="20" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="AH91" s="21"/>
       <c r="AI91" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
-        <v>82</v>
+        <v>861</v>
       </c>
       <c r="B92" t="s">
-        <v>659</v>
+        <v>862</v>
       </c>
       <c r="C92" s="18" t="b">
         <v>0</v>
@@ -13334,98 +13344,84 @@
         <v>662</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>150</v>
+        <v>589</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G92" s="17">
-        <v>45.194276000000002</v>
+        <v>44.153368999999998</v>
       </c>
       <c r="H92" s="17">
-        <v>-116.868663</v>
+        <v>-114.88377199999999</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>695</v>
+        <v>175</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="K92" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M92" s="17" t="s">
-        <v>150</v>
+        <v>589</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="P92" s="22">
-        <v>15.8</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="P92" s="22"/>
       <c r="Q92" s="17" t="s">
-        <v>508</v>
+        <v>863</v>
       </c>
       <c r="R92" s="17">
-        <v>914</v>
+        <v>1442</v>
       </c>
       <c r="S92" s="18">
-        <v>42142</v>
+        <v>40260</v>
       </c>
       <c r="T92" s="18">
-        <v>43278</v>
+        <v>43292</v>
       </c>
       <c r="U92" s="18" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="V92" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="W92" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="X92" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="Y92" s="18" t="s">
-        <v>557</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
       <c r="Z92" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA92" s="17">
         <v>2</v>
       </c>
       <c r="AB92" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC92" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD92" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE92" s="20" t="s">
-        <v>522</v>
-      </c>
+      <c r="AD92" s="20"/>
+      <c r="AE92" s="20"/>
       <c r="AF92" s="20"/>
-      <c r="AG92" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="AG92" s="20"/>
       <c r="AH92" s="21"/>
-      <c r="AI92" s="20" t="s">
-        <v>598</v>
+      <c r="AI92" s="26" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C93" s="18" t="b">
         <v>1</v>
@@ -13434,16 +13430,16 @@
         <v>661</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G93" s="17">
-        <v>45.761051999999999</v>
+        <v>45.767740000000003</v>
       </c>
       <c r="H93" s="17">
-        <v>-116.750231</v>
+        <v>-116.74403700000001</v>
       </c>
       <c r="I93" s="17" t="s">
         <v>695</v>
@@ -13464,16 +13460,16 @@
         <v>150</v>
       </c>
       <c r="P93" s="22">
-        <v>96</v>
+        <v>3.3</v>
       </c>
       <c r="Q93" s="17" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="R93" s="17">
         <v>837</v>
       </c>
       <c r="S93" s="18">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="T93" s="18" t="s">
         <v>230</v>
@@ -13497,41 +13493,41 @@
         <v>1</v>
       </c>
       <c r="AA93" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB93" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC93" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD93" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE93" s="20" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="AF93" s="20"/>
       <c r="AG93" s="20" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="AH93" s="21"/>
       <c r="AI93" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>485</v>
+        <v>659</v>
       </c>
       <c r="C94" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>150</v>
@@ -13540,10 +13536,10 @@
         <v>203</v>
       </c>
       <c r="G94" s="17">
-        <v>45.742702000000001</v>
+        <v>45.194276000000002</v>
       </c>
       <c r="H94" s="17">
-        <v>-116.764304</v>
+        <v>-116.868663</v>
       </c>
       <c r="I94" s="17" t="s">
         <v>695</v>
@@ -13564,95 +13560,95 @@
         <v>150</v>
       </c>
       <c r="P94" s="22">
-        <v>88</v>
+        <v>15.8</v>
       </c>
       <c r="Q94" s="17" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="R94" s="17">
-        <v>840</v>
+        <v>914</v>
       </c>
       <c r="S94" s="18">
-        <v>40483</v>
-      </c>
-      <c r="T94" s="18" t="s">
-        <v>230</v>
+        <v>42142</v>
+      </c>
+      <c r="T94" s="18">
+        <v>43278</v>
       </c>
       <c r="U94" s="18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="V94" s="18" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="W94" s="18" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="X94" s="18" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="Y94" s="18" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="Z94" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA94" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB94" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC94" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD94" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AE94" s="20" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="AF94" s="20"/>
       <c r="AG94" s="20" t="s">
         <v>22</v>
       </c>
       <c r="AH94" s="21"/>
-      <c r="AI94" t="s">
-        <v>487</v>
+      <c r="AI94" s="20" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C95" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F95" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G95" s="17">
-        <v>45.554828000000001</v>
+        <v>45.761051999999999</v>
       </c>
       <c r="H95" s="17">
-        <v>-116.872927</v>
+        <v>-116.750231</v>
       </c>
       <c r="I95" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K95" s="17" t="s">
-        <v>152</v>
+        <v>730</v>
       </c>
       <c r="M95" s="17" t="s">
         <v>150</v>
@@ -13664,16 +13660,16 @@
         <v>150</v>
       </c>
       <c r="P95" s="22">
-        <v>4.4000000000000004</v>
+        <v>96</v>
       </c>
       <c r="Q95" s="17" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="R95" s="17">
-        <v>866</v>
+        <v>837</v>
       </c>
       <c r="S95" s="18">
-        <v>41320</v>
+        <v>40513</v>
       </c>
       <c r="T95" s="18" t="s">
         <v>230</v>
@@ -13682,7 +13678,7 @@
         <v>523</v>
       </c>
       <c r="V95" s="18" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="W95" s="18" t="s">
         <v>535</v>
@@ -13691,13 +13687,13 @@
         <v>535</v>
       </c>
       <c r="Y95" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z95" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA95" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB95" s="17">
         <v>4</v>
@@ -13706,53 +13702,53 @@
         <v>1</v>
       </c>
       <c r="AD95" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AE95" s="20" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="AF95" s="20"/>
       <c r="AG95" s="20" t="s">
-        <v>552</v>
+        <v>22</v>
       </c>
       <c r="AH95" s="21"/>
       <c r="AI95" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
-        <v>491</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C96" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>584</v>
+        <v>150</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G96" s="17">
-        <v>45.516989000000002</v>
+        <v>45.742702000000001</v>
       </c>
       <c r="H96" s="17">
-        <v>-116.868492</v>
+        <v>-116.764304</v>
       </c>
       <c r="I96" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K96" s="17" t="s">
-        <v>152</v>
+        <v>730</v>
       </c>
       <c r="M96" s="17" t="s">
         <v>150</v>
@@ -13763,15 +13759,17 @@
       <c r="O96" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P96" s="22"/>
+      <c r="P96" s="22">
+        <v>88</v>
+      </c>
       <c r="Q96" s="17" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="R96" s="17">
-        <v>868</v>
+        <v>840</v>
       </c>
       <c r="S96" s="18">
-        <v>44992</v>
+        <v>40483</v>
       </c>
       <c r="T96" s="18" t="s">
         <v>230</v>
@@ -13780,56 +13778,68 @@
         <v>523</v>
       </c>
       <c r="V96" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18"/>
-      <c r="Y96" s="18"/>
+        <v>539</v>
+      </c>
+      <c r="W96" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="X96" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y96" s="18" t="s">
+        <v>540</v>
+      </c>
       <c r="Z96" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AA96" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB96" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC96" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD96" s="20"/>
-      <c r="AE96" s="20"/>
+      <c r="AD96" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE96" s="20" t="s">
+        <v>538</v>
+      </c>
       <c r="AF96" s="20"/>
-      <c r="AG96" s="20"/>
+      <c r="AG96" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="AH96" s="21"/>
       <c r="AI96" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C97" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G97" s="17">
-        <v>45.506481999999998</v>
+        <v>45.554828000000001</v>
       </c>
       <c r="H97" s="17">
-        <v>-116.850735</v>
+        <v>-116.872927</v>
       </c>
       <c r="I97" s="17" t="s">
         <v>695</v>
@@ -13850,16 +13860,16 @@
         <v>150</v>
       </c>
       <c r="P97" s="22">
-        <v>18.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q97" s="17" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="R97" s="17">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="S97" s="18">
-        <v>40452</v>
+        <v>41320</v>
       </c>
       <c r="T97" s="18" t="s">
         <v>230</v>
@@ -13868,7 +13878,7 @@
         <v>523</v>
       </c>
       <c r="V97" s="18" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="W97" s="18" t="s">
         <v>535</v>
@@ -13877,7 +13887,7 @@
         <v>535</v>
       </c>
       <c r="Y97" s="18" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z97" s="18" t="b">
         <v>1</v>
@@ -13892,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="AD97" s="20" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AE97" s="20" t="s">
         <v>522</v>
@@ -13903,42 +13913,42 @@
       </c>
       <c r="AH97" s="21"/>
       <c r="AI97" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="B98" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C98" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>150</v>
+        <v>584</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G98" s="17">
-        <v>45.489956999999997</v>
+        <v>45.516989000000002</v>
       </c>
       <c r="H98" s="17">
-        <v>-116.804096</v>
+        <v>-116.868492</v>
       </c>
       <c r="I98" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>730</v>
+        <v>152</v>
       </c>
       <c r="M98" s="17" t="s">
         <v>150</v>
@@ -13949,17 +13959,15 @@
       <c r="O98" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P98" s="22">
-        <v>33</v>
-      </c>
+      <c r="P98" s="22"/>
       <c r="Q98" s="17" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="R98" s="17">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="S98" s="18">
-        <v>40575</v>
+        <v>44992</v>
       </c>
       <c r="T98" s="18" t="s">
         <v>230</v>
@@ -13968,17 +13976,11 @@
         <v>523</v>
       </c>
       <c r="V98" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="W98" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="X98" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y98" s="18" t="s">
-        <v>540</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="W98" s="18"/>
+      <c r="X98" s="18"/>
+      <c r="Y98" s="18"/>
       <c r="Z98" s="18" t="b">
         <v>1</v>
       </c>
@@ -13986,59 +13988,53 @@
         <v>2</v>
       </c>
       <c r="AB98" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC98" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AD98" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE98" s="20" t="s">
-        <v>522</v>
-      </c>
+      <c r="AD98" s="20"/>
+      <c r="AE98" s="20"/>
       <c r="AF98" s="20"/>
-      <c r="AG98" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="AG98" s="20"/>
       <c r="AH98" s="21"/>
       <c r="AI98" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C99" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G99" s="17">
-        <v>45.328017000000003</v>
+        <v>45.506481999999998</v>
       </c>
       <c r="H99" s="17">
-        <v>-116.806641</v>
+        <v>-116.850735</v>
       </c>
       <c r="I99" s="17" t="s">
         <v>695</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>730</v>
+        <v>152</v>
       </c>
       <c r="M99" s="17" t="s">
         <v>150</v>
@@ -14049,17 +14045,17 @@
       <c r="O99" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P99" s="22" t="s">
-        <v>230</v>
+      <c r="P99" s="22">
+        <v>18.7</v>
       </c>
       <c r="Q99" s="17" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="R99" s="17">
-        <v>896</v>
+        <v>868</v>
       </c>
       <c r="S99" s="18">
-        <v>43908</v>
+        <v>40452</v>
       </c>
       <c r="T99" s="18" t="s">
         <v>230</v>
@@ -14068,7 +14064,7 @@
         <v>523</v>
       </c>
       <c r="V99" s="18" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="W99" s="18" t="s">
         <v>535</v>
@@ -14077,7 +14073,7 @@
         <v>535</v>
       </c>
       <c r="Y99" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z99" s="18" t="b">
         <v>1</v>
@@ -14086,13 +14082,13 @@
         <v>2</v>
       </c>
       <c r="AB99" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC99" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD99" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AE99" s="20" t="s">
         <v>522</v>
@@ -14103,33 +14099,33 @@
       </c>
       <c r="AH99" s="21"/>
       <c r="AI99" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C100" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>661</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G100" s="17">
-        <v>45.229300000000002</v>
+        <v>45.489956999999997</v>
       </c>
       <c r="H100" s="17">
-        <v>-116.84478</v>
+        <v>-116.804096</v>
       </c>
       <c r="I100" s="17" t="s">
         <v>695</v>
@@ -14150,16 +14146,16 @@
         <v>150</v>
       </c>
       <c r="P100" s="22">
-        <v>1.2</v>
+        <v>33</v>
       </c>
       <c r="Q100" s="17" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="R100" s="17">
-        <v>911</v>
+        <v>871</v>
       </c>
       <c r="S100" s="18">
-        <v>41586</v>
+        <v>40575</v>
       </c>
       <c r="T100" s="18" t="s">
         <v>230</v>
@@ -14168,7 +14164,7 @@
         <v>523</v>
       </c>
       <c r="V100" s="18" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="W100" s="18" t="s">
         <v>535</v>
@@ -14177,7 +14173,7 @@
         <v>535</v>
       </c>
       <c r="Y100" s="18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Z100" s="18" t="b">
         <v>1</v>
@@ -14186,32 +14182,32 @@
         <v>2</v>
       </c>
       <c r="AB100" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC100" s="18" t="b">
         <v>1</v>
       </c>
       <c r="AD100" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AE100" s="20" t="s">
         <v>522</v>
       </c>
       <c r="AF100" s="20"/>
       <c r="AG100" s="20" t="s">
-        <v>552</v>
+        <v>22</v>
       </c>
       <c r="AH100" s="21"/>
       <c r="AI100" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C101" s="18" t="b">
         <v>0</v>
@@ -14220,16 +14216,16 @@
         <v>661</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G101" s="17">
-        <v>45.194459999999999</v>
+        <v>45.328017000000003</v>
       </c>
       <c r="H101" s="17">
-        <v>-116.868774</v>
+        <v>-116.806641</v>
       </c>
       <c r="I101" s="17" t="s">
         <v>695</v>
@@ -14249,35 +14245,35 @@
       <c r="O101" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="P101" s="22">
-        <v>15.8</v>
+      <c r="P101" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="Q101" s="17" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="R101" s="17">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="S101" s="18">
-        <v>42600</v>
+        <v>43908</v>
       </c>
       <c r="T101" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U101" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="V101" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="W101" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="X101" s="18" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="Y101" s="18" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="Z101" s="18" t="b">
         <v>1</v>
@@ -14286,7 +14282,7 @@
         <v>2</v>
       </c>
       <c r="AB101" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC101" s="18" t="b">
         <v>1</v>
@@ -14299,21 +14295,19 @@
       </c>
       <c r="AF101" s="20"/>
       <c r="AG101" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH101" s="21" t="s">
-        <v>598</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="AH101" s="21"/>
       <c r="AI101" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C102" s="18" t="b">
         <v>0</v>
@@ -14322,16 +14316,16 @@
         <v>661</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>203</v>
       </c>
       <c r="G102" s="17">
-        <v>45.193187999999999</v>
+        <v>45.229300000000002</v>
       </c>
       <c r="H102" s="17">
-        <v>-116.868593</v>
+        <v>-116.84478</v>
       </c>
       <c r="I102" s="17" t="s">
         <v>695</v>
@@ -14352,34 +14346,34 @@
         <v>150</v>
       </c>
       <c r="P102" s="22">
-        <v>15.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q102" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R102" s="17">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="S102" s="18">
-        <v>42600</v>
+        <v>41586</v>
       </c>
       <c r="T102" s="18" t="s">
         <v>230</v>
       </c>
       <c r="U102" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="V102" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="W102" s="18" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="X102" s="18" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="Y102" s="18" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="Z102" s="18" t="b">
         <v>1</v>
@@ -14388,7 +14382,7 @@
         <v>2</v>
       </c>
       <c r="AB102" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC102" s="18" t="b">
         <v>1</v>
@@ -14401,12 +14395,214 @@
       </c>
       <c r="AF102" s="20"/>
       <c r="AG102" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH102" s="21"/>
+      <c r="AI102" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A103" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" t="s">
+        <v>507</v>
+      </c>
+      <c r="C103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" s="17">
+        <v>45.194459999999999</v>
+      </c>
+      <c r="H103" s="17">
+        <v>-116.868774</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="J103" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="K103" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="M103" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N103" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O103" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P103" s="22">
+        <v>15.8</v>
+      </c>
+      <c r="Q103" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R103" s="17">
+        <v>914</v>
+      </c>
+      <c r="S103" s="18">
+        <v>42600</v>
+      </c>
+      <c r="T103" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="U103" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="V103" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="W103" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="X103" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y103" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z103" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA103" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB103" s="17">
+        <v>6</v>
+      </c>
+      <c r="AC103" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD103" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE103" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH103" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A104" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>510</v>
+      </c>
+      <c r="C104" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G104" s="17">
+        <v>45.193187999999999</v>
+      </c>
+      <c r="H104" s="17">
+        <v>-116.868593</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="M104" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N104" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O104" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P104" s="22">
+        <v>15.8</v>
+      </c>
+      <c r="Q104" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R104" s="17">
+        <v>914</v>
+      </c>
+      <c r="S104" s="18">
+        <v>42600</v>
+      </c>
+      <c r="T104" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="U104" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="V104" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="W104" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="X104" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y104" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z104" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA104" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB104" s="17">
+        <v>8</v>
+      </c>
+      <c r="AC104" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE104" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF104" s="20"/>
+      <c r="AG104" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AH102" s="21" t="s">
+      <c r="AH104" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="AI102" t="s">
+      <c r="AI104" t="s">
         <v>511</v>
       </c>
     </row>

--- a/docs/Snake River IPTDS Prioritization 20230814.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230814.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F91B86C-959D-4195-9602-B1A82680D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E23A0-3FEF-4931-84E4-C9B4A1740444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36705" yWindow="1695" windowWidth="12150" windowHeight="11370" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -4419,7 +4419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
   <dimension ref="A1:AI104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14616,11 +14616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175A1EF7-D6F6-40B5-8CC5-720EBF0869DB}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15949,8 +15949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B48E5-B2D0-4B19-967E-72BE4D4B4F25}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
